--- a/Nomina_trabajos finales.xlsx
+++ b/Nomina_trabajos finales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rogerruizescobar/Documents/UDABOL/UDABOL_202202/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4937CDAA-662E-7346-A645-A772EE3BA0A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F31C16-4BFF-444E-8579-F8F058264961}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja2!$A$1:$R$57</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="461">
   <si>
     <t>Leonardo</t>
   </si>
@@ -1406,6 +1409,9 @@
   </si>
   <si>
     <t>Presentacion Operaciones con usuarios</t>
+  </si>
+  <si>
+    <t>Mono</t>
   </si>
 </sst>
 </file>
@@ -1415,7 +1421,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1896,7 +1902,7 @@
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
@@ -1904,7 +1910,7 @@
     <col min="6" max="6" width="13.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -1921,7 +1927,7 @@
         <v>9845916</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1">
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -1941,7 +1947,7 @@
         <v>4308676</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1">
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -1961,7 +1967,7 @@
         <v>5273148</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1">
+    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -1981,7 +1987,7 @@
         <v>10680663</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18.75" customHeight="1">
+    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -2001,7 +2007,7 @@
         <v>5246381</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18.75" customHeight="1">
+    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -2021,7 +2027,7 @@
         <v>12873339</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18.75" customHeight="1">
+    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -2041,7 +2047,7 @@
         <v>7351544</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18.75" customHeight="1">
+    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -2061,7 +2067,7 @@
         <v>7296889</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18.75" customHeight="1">
+    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -2081,7 +2087,7 @@
         <v>9083846</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18.75" customHeight="1">
+    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -2098,7 +2104,7 @@
         <v>8437859</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18.75" customHeight="1">
+    <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -2118,7 +2124,7 @@
         <v>11304597</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18.75" customHeight="1">
+    <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -2135,7 +2141,7 @@
         <v>8911045</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18.75" customHeight="1">
+    <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -2152,7 +2158,7 @@
         <v>6717766</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="18.75" customHeight="1">
+    <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -2172,7 +2178,7 @@
         <v>2631732</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="18.75" customHeight="1">
+    <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -2189,7 +2195,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="18.75" customHeight="1">
+    <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -2209,7 +2215,7 @@
         <v>33970</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="18.75" customHeight="1">
+    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -2229,7 +2235,7 @@
         <v>9899773</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="18.75" customHeight="1">
+    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -2249,7 +2255,7 @@
         <v>7041610</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="18.75" customHeight="1">
+    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -2269,7 +2275,7 @@
         <v>12669252</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="18.75" customHeight="1">
+    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -2289,7 +2295,7 @@
         <v>10931935</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="18.75" customHeight="1">
+    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -2309,7 +2315,7 @@
         <v>6920030</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="18.75" customHeight="1">
+    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -2329,7 +2335,7 @@
         <v>6434495</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="18.75" customHeight="1">
+    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -2349,7 +2355,7 @@
         <v>9155549</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="18.75" customHeight="1">
+    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -2366,7 +2372,7 @@
         <v>6823974</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="18.75" customHeight="1">
+    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -2386,7 +2392,7 @@
         <v>2622061</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="18.75" customHeight="1">
+    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -2403,7 +2409,7 @@
         <v>7838112</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="18.75" customHeight="1">
+    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -2423,7 +2429,7 @@
         <v>12864046</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="18.75" customHeight="1">
+    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -2443,7 +2449,7 @@
         <v>9110161</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="18.75" customHeight="1">
+    <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -2457,7 +2463,7 @@
         <v>9911855</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="18.75" customHeight="1">
+    <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>30</v>
       </c>
@@ -2474,7 +2480,7 @@
         <v>9459513</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="18.75" customHeight="1">
+    <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>31</v>
       </c>
@@ -2491,7 +2497,7 @@
         <v>10954950</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="18.75" customHeight="1">
+    <row r="32" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -2508,7 +2514,7 @@
         <v>8028972</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="18.75" customHeight="1">
+    <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -2528,7 +2534,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="16">
+    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -2548,7 +2554,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="16">
+    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>35</v>
       </c>
@@ -2573,13 +2579,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:R151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q56" sqref="Q56"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P58" sqref="P58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
@@ -2596,7 +2603,7 @@
     <col min="14" max="18" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.75" customHeight="1">
+    <row r="1" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18"/>
       <c r="B1" s="6" t="s">
         <v>114</v>
@@ -2642,7 +2649,7 @@
       <c r="Q1" s="8"/>
       <c r="R1" s="8"/>
     </row>
-    <row r="2" spans="1:18" ht="18.75" customHeight="1">
+    <row r="2" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18">
         <v>20</v>
       </c>
@@ -2695,7 +2702,7 @@
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
     </row>
-    <row r="3" spans="1:18" ht="18.75" customHeight="1">
+    <row r="3" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18">
         <v>10</v>
       </c>
@@ -2746,7 +2753,7 @@
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
     </row>
-    <row r="4" spans="1:18" ht="18.75" customHeight="1">
+    <row r="4" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18">
         <v>50</v>
       </c>
@@ -2795,7 +2802,7 @@
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
     </row>
-    <row r="5" spans="1:18" ht="18.75" customHeight="1">
+    <row r="5" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18">
         <v>40</v>
       </c>
@@ -2844,7 +2851,7 @@
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
     </row>
-    <row r="6" spans="1:18" ht="18.75" customHeight="1">
+    <row r="6" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18">
         <v>30</v>
       </c>
@@ -2895,7 +2902,7 @@
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
     </row>
-    <row r="7" spans="1:18" ht="18.75" customHeight="1">
+    <row r="7" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18">
         <v>11</v>
       </c>
@@ -2946,7 +2953,7 @@
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
     </row>
-    <row r="8" spans="1:18" ht="18.75" customHeight="1">
+    <row r="8" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18">
         <v>51</v>
       </c>
@@ -2999,7 +3006,7 @@
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
     </row>
-    <row r="9" spans="1:18" ht="18.75" customHeight="1">
+    <row r="9" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18">
         <v>41</v>
       </c>
@@ -3050,7 +3057,7 @@
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
     </row>
-    <row r="10" spans="1:18" ht="18.75" customHeight="1">
+    <row r="10" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18">
         <v>31</v>
       </c>
@@ -3101,7 +3108,7 @@
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
     </row>
-    <row r="11" spans="1:18" ht="18.75" customHeight="1">
+    <row r="11" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18">
         <v>21</v>
       </c>
@@ -3152,7 +3159,7 @@
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
     </row>
-    <row r="12" spans="1:18" ht="18.75" customHeight="1">
+    <row r="12" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18">
         <v>1</v>
       </c>
@@ -3203,7 +3210,7 @@
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
     </row>
-    <row r="13" spans="1:18" ht="18.75" customHeight="1">
+    <row r="13" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18">
         <v>32</v>
       </c>
@@ -3256,7 +3263,7 @@
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
     </row>
-    <row r="14" spans="1:18" ht="18.75" customHeight="1">
+    <row r="14" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18">
         <v>42</v>
       </c>
@@ -3305,7 +3312,7 @@
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
     </row>
-    <row r="15" spans="1:18" ht="18.75" customHeight="1">
+    <row r="15" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18">
         <v>2</v>
       </c>
@@ -3356,7 +3363,7 @@
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
     </row>
-    <row r="16" spans="1:18" ht="18.75" customHeight="1">
+    <row r="16" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18">
         <v>22</v>
       </c>
@@ -3407,7 +3414,7 @@
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
     </row>
-    <row r="17" spans="1:18" ht="18.75" customHeight="1">
+    <row r="17" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18">
         <v>12</v>
       </c>
@@ -3458,7 +3465,7 @@
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
     </row>
-    <row r="18" spans="1:18" ht="18.75" customHeight="1">
+    <row r="18" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18">
         <v>52</v>
       </c>
@@ -3487,7 +3494,7 @@
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
     </row>
-    <row r="19" spans="1:18" ht="18.75" customHeight="1">
+    <row r="19" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="18">
         <v>33</v>
       </c>
@@ -3540,7 +3547,7 @@
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
     </row>
-    <row r="20" spans="1:18" ht="18.75" customHeight="1">
+    <row r="20" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="18">
         <v>43</v>
       </c>
@@ -3591,7 +3598,7 @@
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
     </row>
-    <row r="21" spans="1:18" ht="18.75" customHeight="1">
+    <row r="21" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="18">
         <v>23</v>
       </c>
@@ -3642,7 +3649,7 @@
       <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
     </row>
-    <row r="22" spans="1:18" ht="18.75" customHeight="1">
+    <row r="22" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18">
         <v>13</v>
       </c>
@@ -3693,7 +3700,7 @@
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
     </row>
-    <row r="23" spans="1:18" ht="18.75" customHeight="1">
+    <row r="23" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18">
         <v>3</v>
       </c>
@@ -3744,7 +3751,7 @@
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
     </row>
-    <row r="24" spans="1:18" ht="18.75" customHeight="1">
+    <row r="24" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="18">
         <v>53</v>
       </c>
@@ -3773,7 +3780,7 @@
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
     </row>
-    <row r="25" spans="1:18" ht="18.75" customHeight="1">
+    <row r="25" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18">
         <v>4</v>
       </c>
@@ -3826,7 +3833,7 @@
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
     </row>
-    <row r="26" spans="1:18" ht="18.75" customHeight="1">
+    <row r="26" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="18">
         <v>24</v>
       </c>
@@ -3873,11 +3880,13 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="P26" s="8"/>
+      <c r="P26" s="8" t="s">
+        <v>460</v>
+      </c>
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
     </row>
-    <row r="27" spans="1:18" ht="18.75" customHeight="1">
+    <row r="27" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="18">
         <v>44</v>
       </c>
@@ -3928,7 +3937,7 @@
       <c r="Q27" s="8"/>
       <c r="R27" s="8"/>
     </row>
-    <row r="28" spans="1:18" ht="18.75" customHeight="1">
+    <row r="28" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18">
         <v>34</v>
       </c>
@@ -3979,7 +3988,7 @@
       <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
     </row>
-    <row r="29" spans="1:18" ht="18.75" customHeight="1">
+    <row r="29" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="18">
         <v>14</v>
       </c>
@@ -4026,11 +4035,13 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="P29" s="8"/>
+      <c r="P29" s="8" t="s">
+        <v>460</v>
+      </c>
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
     </row>
-    <row r="30" spans="1:18" ht="18.75" customHeight="1">
+    <row r="30" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="18">
         <v>54</v>
       </c>
@@ -4059,7 +4070,7 @@
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
     </row>
-    <row r="31" spans="1:18" ht="18.75" customHeight="1">
+    <row r="31" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="18">
         <v>5</v>
       </c>
@@ -4112,7 +4123,7 @@
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
     </row>
-    <row r="32" spans="1:18" ht="18.75" customHeight="1">
+    <row r="32" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="18">
         <v>15</v>
       </c>
@@ -4163,7 +4174,7 @@
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
     </row>
-    <row r="33" spans="1:18" ht="18.75" customHeight="1">
+    <row r="33" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="18">
         <v>25</v>
       </c>
@@ -4214,7 +4225,7 @@
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
     </row>
-    <row r="34" spans="1:18" ht="18.75" customHeight="1">
+    <row r="34" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="18">
         <v>45</v>
       </c>
@@ -4258,14 +4269,14 @@
         <v>45</v>
       </c>
       <c r="O34" s="10">
-        <f t="shared" ref="O34:O65" si="1">MOD(N34,10)</f>
+        <f t="shared" ref="O34:O57" si="1">MOD(N34,10)</f>
         <v>5</v>
       </c>
       <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
     </row>
-    <row r="35" spans="1:18" ht="18.75" customHeight="1">
+    <row r="35" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="18">
         <v>35</v>
       </c>
@@ -4316,7 +4327,7 @@
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
     </row>
-    <row r="36" spans="1:18" ht="18.75" customHeight="1">
+    <row r="36" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="18">
         <v>55</v>
       </c>
@@ -4345,7 +4356,7 @@
       <c r="Q36" s="8"/>
       <c r="R36" s="8"/>
     </row>
-    <row r="37" spans="1:18" ht="18.75" customHeight="1">
+    <row r="37" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="18">
         <v>46</v>
       </c>
@@ -4398,7 +4409,7 @@
       <c r="Q37" s="8"/>
       <c r="R37" s="8"/>
     </row>
-    <row r="38" spans="1:18" ht="18.75" customHeight="1">
+    <row r="38" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="18">
         <v>36</v>
       </c>
@@ -4449,7 +4460,7 @@
       <c r="Q38" s="8"/>
       <c r="R38" s="8"/>
     </row>
-    <row r="39" spans="1:18" ht="18.75" customHeight="1">
+    <row r="39" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="18">
         <v>6</v>
       </c>
@@ -4500,7 +4511,7 @@
       <c r="Q39" s="8"/>
       <c r="R39" s="8"/>
     </row>
-    <row r="40" spans="1:18" ht="18.75" customHeight="1">
+    <row r="40" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="18">
         <v>26</v>
       </c>
@@ -4551,7 +4562,7 @@
       <c r="Q40" s="8"/>
       <c r="R40" s="8"/>
     </row>
-    <row r="41" spans="1:18" ht="18.75" customHeight="1">
+    <row r="41" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="18">
         <v>16</v>
       </c>
@@ -4600,7 +4611,7 @@
       <c r="Q41" s="8"/>
       <c r="R41" s="8"/>
     </row>
-    <row r="42" spans="1:18" ht="18.75" customHeight="1">
+    <row r="42" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="18">
         <v>56</v>
       </c>
@@ -4629,7 +4640,7 @@
       <c r="Q42" s="8"/>
       <c r="R42" s="8"/>
     </row>
-    <row r="43" spans="1:18" ht="18.75" customHeight="1">
+    <row r="43" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="18">
         <v>47</v>
       </c>
@@ -4682,7 +4693,7 @@
       <c r="Q43" s="8"/>
       <c r="R43" s="8"/>
     </row>
-    <row r="44" spans="1:18" ht="18.75" customHeight="1">
+    <row r="44" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="18">
         <v>17</v>
       </c>
@@ -4733,7 +4744,7 @@
       <c r="Q44" s="8"/>
       <c r="R44" s="8"/>
     </row>
-    <row r="45" spans="1:18" ht="18.75" customHeight="1">
+    <row r="45" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="18">
         <v>27</v>
       </c>
@@ -4784,7 +4795,7 @@
       <c r="Q45" s="8"/>
       <c r="R45" s="8"/>
     </row>
-    <row r="46" spans="1:18" ht="18.75" customHeight="1">
+    <row r="46" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="18">
         <v>7</v>
       </c>
@@ -4835,7 +4846,7 @@
       <c r="Q46" s="8"/>
       <c r="R46" s="8"/>
     </row>
-    <row r="47" spans="1:18" ht="18.75" customHeight="1">
+    <row r="47" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="18">
         <v>37</v>
       </c>
@@ -4886,7 +4897,7 @@
       <c r="Q47" s="8"/>
       <c r="R47" s="8"/>
     </row>
-    <row r="48" spans="1:18" ht="18.75" customHeight="1">
+    <row r="48" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="18">
         <v>38</v>
       </c>
@@ -4939,7 +4950,7 @@
       <c r="Q48" s="8"/>
       <c r="R48" s="8"/>
     </row>
-    <row r="49" spans="1:18" ht="18.75" customHeight="1">
+    <row r="49" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="18">
         <v>48</v>
       </c>
@@ -4990,7 +5001,7 @@
       <c r="Q49" s="8"/>
       <c r="R49" s="8"/>
     </row>
-    <row r="50" spans="1:18" ht="18.75" customHeight="1">
+    <row r="50" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="18">
         <v>8</v>
       </c>
@@ -5037,11 +5048,13 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="P50" s="8"/>
+      <c r="P50" s="8" t="s">
+        <v>460</v>
+      </c>
       <c r="Q50" s="8"/>
       <c r="R50" s="8"/>
     </row>
-    <row r="51" spans="1:18" ht="18.75" customHeight="1">
+    <row r="51" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="18">
         <v>18</v>
       </c>
@@ -5092,7 +5105,7 @@
       <c r="Q51" s="8"/>
       <c r="R51" s="8"/>
     </row>
-    <row r="52" spans="1:18" ht="18.75" customHeight="1">
+    <row r="52" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="18">
         <v>28</v>
       </c>
@@ -5143,7 +5156,7 @@
       <c r="Q52" s="8"/>
       <c r="R52" s="8"/>
     </row>
-    <row r="53" spans="1:18" ht="18.75" customHeight="1">
+    <row r="53" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="18">
         <v>49</v>
       </c>
@@ -5196,7 +5209,7 @@
       <c r="Q53" s="8"/>
       <c r="R53" s="8"/>
     </row>
-    <row r="54" spans="1:18" ht="18.75" customHeight="1">
+    <row r="54" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="18">
         <v>19</v>
       </c>
@@ -5247,7 +5260,7 @@
       <c r="Q54" s="8"/>
       <c r="R54" s="8"/>
     </row>
-    <row r="55" spans="1:18" ht="18.75" customHeight="1">
+    <row r="55" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="18">
         <v>39</v>
       </c>
@@ -5298,7 +5311,7 @@
       <c r="Q55" s="8"/>
       <c r="R55" s="8"/>
     </row>
-    <row r="56" spans="1:18" ht="18.75" customHeight="1">
+    <row r="56" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="18">
         <v>9</v>
       </c>
@@ -5349,7 +5362,7 @@
       <c r="Q56" s="8"/>
       <c r="R56" s="8"/>
     </row>
-    <row r="57" spans="1:18" ht="18.75" customHeight="1">
+    <row r="57" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="18">
         <v>29</v>
       </c>
@@ -5400,7 +5413,7 @@
       <c r="Q57" s="8"/>
       <c r="R57" s="8"/>
     </row>
-    <row r="58" spans="1:18" ht="18.75" customHeight="1">
+    <row r="58" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="11"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -5419,7 +5432,7 @@
       <c r="Q58" s="8"/>
       <c r="R58" s="8"/>
     </row>
-    <row r="59" spans="1:18" ht="18.75" customHeight="1">
+    <row r="59" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="11"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -5438,7 +5451,7 @@
       <c r="Q59" s="8"/>
       <c r="R59" s="8"/>
     </row>
-    <row r="60" spans="1:18" ht="18.75" customHeight="1">
+    <row r="60" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="11"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
@@ -5457,7 +5470,7 @@
       <c r="Q60" s="8"/>
       <c r="R60" s="8"/>
     </row>
-    <row r="61" spans="1:18" ht="18.75" customHeight="1">
+    <row r="61" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="11"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -5476,7 +5489,7 @@
       <c r="Q61" s="8"/>
       <c r="R61" s="8"/>
     </row>
-    <row r="62" spans="1:18" ht="18.75" customHeight="1">
+    <row r="62" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="11"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
@@ -5495,7 +5508,7 @@
       <c r="Q62" s="8"/>
       <c r="R62" s="8"/>
     </row>
-    <row r="63" spans="1:18" ht="18.75" customHeight="1">
+    <row r="63" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="11"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
@@ -5514,7 +5527,7 @@
       <c r="Q63" s="8"/>
       <c r="R63" s="8"/>
     </row>
-    <row r="64" spans="1:18" ht="18.75" customHeight="1">
+    <row r="64" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="11"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -5533,7 +5546,7 @@
       <c r="Q64" s="8"/>
       <c r="R64" s="8"/>
     </row>
-    <row r="65" spans="2:18" ht="18.75" customHeight="1">
+    <row r="65" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="11"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -5552,7 +5565,7 @@
       <c r="Q65" s="8"/>
       <c r="R65" s="8"/>
     </row>
-    <row r="66" spans="2:18" ht="18.75" customHeight="1">
+    <row r="66" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="11"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
@@ -5571,7 +5584,7 @@
       <c r="Q66" s="8"/>
       <c r="R66" s="8"/>
     </row>
-    <row r="67" spans="2:18" ht="18.75" customHeight="1">
+    <row r="67" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="11"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -5590,7 +5603,7 @@
       <c r="Q67" s="8"/>
       <c r="R67" s="8"/>
     </row>
-    <row r="68" spans="2:18" ht="18.75" customHeight="1">
+    <row r="68" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="11"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -5609,7 +5622,7 @@
       <c r="Q68" s="8"/>
       <c r="R68" s="8"/>
     </row>
-    <row r="69" spans="2:18" ht="18.75" customHeight="1">
+    <row r="69" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="11"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
@@ -5628,7 +5641,7 @@
       <c r="Q69" s="8"/>
       <c r="R69" s="8"/>
     </row>
-    <row r="70" spans="2:18" ht="18.75" customHeight="1">
+    <row r="70" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="11"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -5647,7 +5660,7 @@
       <c r="Q70" s="8"/>
       <c r="R70" s="8"/>
     </row>
-    <row r="71" spans="2:18" ht="18.75" customHeight="1">
+    <row r="71" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="11"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
@@ -5666,7 +5679,7 @@
       <c r="Q71" s="8"/>
       <c r="R71" s="8"/>
     </row>
-    <row r="72" spans="2:18" ht="18.75" customHeight="1">
+    <row r="72" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="11"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
@@ -5685,7 +5698,7 @@
       <c r="Q72" s="8"/>
       <c r="R72" s="8"/>
     </row>
-    <row r="73" spans="2:18" ht="18.75" customHeight="1">
+    <row r="73" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="11"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -5704,7 +5717,7 @@
       <c r="Q73" s="8"/>
       <c r="R73" s="8"/>
     </row>
-    <row r="74" spans="2:18" ht="18.75" customHeight="1">
+    <row r="74" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="11"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
@@ -5723,7 +5736,7 @@
       <c r="Q74" s="8"/>
       <c r="R74" s="8"/>
     </row>
-    <row r="75" spans="2:18" ht="18.75" customHeight="1">
+    <row r="75" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="11"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
@@ -5742,7 +5755,7 @@
       <c r="Q75" s="8"/>
       <c r="R75" s="8"/>
     </row>
-    <row r="76" spans="2:18" ht="18.75" customHeight="1">
+    <row r="76" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="11"/>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
@@ -5761,7 +5774,7 @@
       <c r="Q76" s="8"/>
       <c r="R76" s="8"/>
     </row>
-    <row r="77" spans="2:18" ht="18.75" customHeight="1">
+    <row r="77" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="11"/>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
@@ -5780,7 +5793,7 @@
       <c r="Q77" s="8"/>
       <c r="R77" s="8"/>
     </row>
-    <row r="78" spans="2:18" ht="18.75" customHeight="1">
+    <row r="78" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="11"/>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
@@ -5799,7 +5812,7 @@
       <c r="Q78" s="8"/>
       <c r="R78" s="8"/>
     </row>
-    <row r="79" spans="2:18" ht="18.75" customHeight="1">
+    <row r="79" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="11"/>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
@@ -5818,7 +5831,7 @@
       <c r="Q79" s="8"/>
       <c r="R79" s="8"/>
     </row>
-    <row r="80" spans="2:18" ht="18.75" customHeight="1">
+    <row r="80" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="11"/>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
@@ -5837,7 +5850,7 @@
       <c r="Q80" s="8"/>
       <c r="R80" s="8"/>
     </row>
-    <row r="81" spans="2:18" ht="18.75" customHeight="1">
+    <row r="81" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="11"/>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
@@ -5856,7 +5869,7 @@
       <c r="Q81" s="8"/>
       <c r="R81" s="8"/>
     </row>
-    <row r="82" spans="2:18" ht="18.75" customHeight="1">
+    <row r="82" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="11"/>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
@@ -5875,7 +5888,7 @@
       <c r="Q82" s="8"/>
       <c r="R82" s="8"/>
     </row>
-    <row r="83" spans="2:18" ht="18.75" customHeight="1">
+    <row r="83" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="11"/>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
@@ -5894,7 +5907,7 @@
       <c r="Q83" s="8"/>
       <c r="R83" s="8"/>
     </row>
-    <row r="84" spans="2:18" ht="18.75" customHeight="1">
+    <row r="84" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="11"/>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
@@ -5913,7 +5926,7 @@
       <c r="Q84" s="8"/>
       <c r="R84" s="8"/>
     </row>
-    <row r="85" spans="2:18" ht="18.75" customHeight="1">
+    <row r="85" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="11"/>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
@@ -5932,7 +5945,7 @@
       <c r="Q85" s="8"/>
       <c r="R85" s="8"/>
     </row>
-    <row r="86" spans="2:18" ht="18.75" customHeight="1">
+    <row r="86" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="11"/>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
@@ -5951,7 +5964,7 @@
       <c r="Q86" s="8"/>
       <c r="R86" s="8"/>
     </row>
-    <row r="87" spans="2:18" ht="18.75" customHeight="1">
+    <row r="87" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="11"/>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
@@ -5970,7 +5983,7 @@
       <c r="Q87" s="8"/>
       <c r="R87" s="8"/>
     </row>
-    <row r="88" spans="2:18" ht="18.75" customHeight="1">
+    <row r="88" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="11"/>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
@@ -5989,7 +6002,7 @@
       <c r="Q88" s="8"/>
       <c r="R88" s="8"/>
     </row>
-    <row r="89" spans="2:18" ht="18.75" customHeight="1">
+    <row r="89" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="11"/>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
@@ -6008,7 +6021,7 @@
       <c r="Q89" s="8"/>
       <c r="R89" s="8"/>
     </row>
-    <row r="90" spans="2:18" ht="18.75" customHeight="1">
+    <row r="90" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="11"/>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
@@ -6027,7 +6040,7 @@
       <c r="Q90" s="8"/>
       <c r="R90" s="8"/>
     </row>
-    <row r="91" spans="2:18" ht="18.75" customHeight="1">
+    <row r="91" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="11"/>
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
@@ -6046,7 +6059,7 @@
       <c r="Q91" s="8"/>
       <c r="R91" s="8"/>
     </row>
-    <row r="92" spans="2:18" ht="18.75" customHeight="1">
+    <row r="92" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="11"/>
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
@@ -6065,7 +6078,7 @@
       <c r="Q92" s="8"/>
       <c r="R92" s="8"/>
     </row>
-    <row r="93" spans="2:18" ht="18.75" customHeight="1">
+    <row r="93" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="11"/>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
@@ -6084,7 +6097,7 @@
       <c r="Q93" s="8"/>
       <c r="R93" s="8"/>
     </row>
-    <row r="94" spans="2:18" ht="18.75" customHeight="1">
+    <row r="94" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="11"/>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
@@ -6103,7 +6116,7 @@
       <c r="Q94" s="8"/>
       <c r="R94" s="8"/>
     </row>
-    <row r="95" spans="2:18" ht="18.75" customHeight="1">
+    <row r="95" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="11"/>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
@@ -6122,7 +6135,7 @@
       <c r="Q95" s="8"/>
       <c r="R95" s="8"/>
     </row>
-    <row r="96" spans="2:18" ht="18.75" customHeight="1">
+    <row r="96" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="11"/>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
@@ -6141,7 +6154,7 @@
       <c r="Q96" s="8"/>
       <c r="R96" s="8"/>
     </row>
-    <row r="97" spans="2:18" ht="18.75" customHeight="1">
+    <row r="97" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="11"/>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
@@ -6160,7 +6173,7 @@
       <c r="Q97" s="8"/>
       <c r="R97" s="8"/>
     </row>
-    <row r="98" spans="2:18" ht="18.75" customHeight="1">
+    <row r="98" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="11"/>
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
@@ -6179,7 +6192,7 @@
       <c r="Q98" s="8"/>
       <c r="R98" s="8"/>
     </row>
-    <row r="99" spans="2:18" ht="18.75" customHeight="1">
+    <row r="99" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="11"/>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
@@ -6198,7 +6211,7 @@
       <c r="Q99" s="8"/>
       <c r="R99" s="8"/>
     </row>
-    <row r="100" spans="2:18" ht="18.75" customHeight="1">
+    <row r="100" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="11"/>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
@@ -6217,7 +6230,7 @@
       <c r="Q100" s="8"/>
       <c r="R100" s="8"/>
     </row>
-    <row r="101" spans="2:18" ht="18.75" customHeight="1">
+    <row r="101" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="11"/>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
@@ -6236,7 +6249,7 @@
       <c r="Q101" s="8"/>
       <c r="R101" s="8"/>
     </row>
-    <row r="102" spans="2:18" ht="18.75" customHeight="1">
+    <row r="102" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="11"/>
       <c r="C102" s="8"/>
       <c r="D102" s="8"/>
@@ -6255,7 +6268,7 @@
       <c r="Q102" s="8"/>
       <c r="R102" s="8"/>
     </row>
-    <row r="103" spans="2:18" ht="18.75" customHeight="1">
+    <row r="103" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="11"/>
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
@@ -6274,7 +6287,7 @@
       <c r="Q103" s="8"/>
       <c r="R103" s="8"/>
     </row>
-    <row r="104" spans="2:18" ht="18.75" customHeight="1">
+    <row r="104" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="11"/>
       <c r="C104" s="8"/>
       <c r="D104" s="8"/>
@@ -6293,7 +6306,7 @@
       <c r="Q104" s="8"/>
       <c r="R104" s="8"/>
     </row>
-    <row r="105" spans="2:18" ht="18.75" customHeight="1">
+    <row r="105" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="11"/>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
@@ -6312,7 +6325,7 @@
       <c r="Q105" s="8"/>
       <c r="R105" s="8"/>
     </row>
-    <row r="106" spans="2:18" ht="18.75" customHeight="1">
+    <row r="106" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="11"/>
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
@@ -6331,7 +6344,7 @@
       <c r="Q106" s="8"/>
       <c r="R106" s="8"/>
     </row>
-    <row r="107" spans="2:18" ht="18.75" customHeight="1">
+    <row r="107" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="11"/>
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
@@ -6350,7 +6363,7 @@
       <c r="Q107" s="8"/>
       <c r="R107" s="8"/>
     </row>
-    <row r="108" spans="2:18" ht="18.75" customHeight="1">
+    <row r="108" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="11"/>
       <c r="C108" s="8"/>
       <c r="D108" s="8"/>
@@ -6369,7 +6382,7 @@
       <c r="Q108" s="8"/>
       <c r="R108" s="8"/>
     </row>
-    <row r="109" spans="2:18" ht="18.75" customHeight="1">
+    <row r="109" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="11"/>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
@@ -6388,7 +6401,7 @@
       <c r="Q109" s="8"/>
       <c r="R109" s="8"/>
     </row>
-    <row r="110" spans="2:18" ht="18.75" customHeight="1">
+    <row r="110" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="11"/>
       <c r="C110" s="8"/>
       <c r="D110" s="8"/>
@@ -6407,7 +6420,7 @@
       <c r="Q110" s="8"/>
       <c r="R110" s="8"/>
     </row>
-    <row r="111" spans="2:18" ht="18.75" customHeight="1">
+    <row r="111" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="11"/>
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
@@ -6426,7 +6439,7 @@
       <c r="Q111" s="8"/>
       <c r="R111" s="8"/>
     </row>
-    <row r="112" spans="2:18" ht="18.75" customHeight="1">
+    <row r="112" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="11"/>
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
@@ -6445,7 +6458,7 @@
       <c r="Q112" s="8"/>
       <c r="R112" s="8"/>
     </row>
-    <row r="113" spans="2:18" ht="18.75" customHeight="1">
+    <row r="113" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="11"/>
       <c r="C113" s="8"/>
       <c r="D113" s="8"/>
@@ -6464,7 +6477,7 @@
       <c r="Q113" s="8"/>
       <c r="R113" s="8"/>
     </row>
-    <row r="114" spans="2:18" ht="18.75" customHeight="1">
+    <row r="114" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="11"/>
       <c r="C114" s="8"/>
       <c r="D114" s="8"/>
@@ -6483,7 +6496,7 @@
       <c r="Q114" s="8"/>
       <c r="R114" s="8"/>
     </row>
-    <row r="115" spans="2:18" ht="18.75" customHeight="1">
+    <row r="115" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="11"/>
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
@@ -6502,7 +6515,7 @@
       <c r="Q115" s="8"/>
       <c r="R115" s="8"/>
     </row>
-    <row r="116" spans="2:18" ht="18.75" customHeight="1">
+    <row r="116" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="11"/>
       <c r="C116" s="8"/>
       <c r="D116" s="8"/>
@@ -6521,7 +6534,7 @@
       <c r="Q116" s="8"/>
       <c r="R116" s="8"/>
     </row>
-    <row r="117" spans="2:18" ht="18.75" customHeight="1">
+    <row r="117" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="11"/>
       <c r="C117" s="8"/>
       <c r="D117" s="8"/>
@@ -6540,7 +6553,7 @@
       <c r="Q117" s="8"/>
       <c r="R117" s="8"/>
     </row>
-    <row r="118" spans="2:18" ht="18.75" customHeight="1">
+    <row r="118" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="11"/>
       <c r="C118" s="8"/>
       <c r="D118" s="8"/>
@@ -6559,7 +6572,7 @@
       <c r="Q118" s="8"/>
       <c r="R118" s="8"/>
     </row>
-    <row r="119" spans="2:18" ht="18.75" customHeight="1">
+    <row r="119" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="11"/>
       <c r="C119" s="8"/>
       <c r="D119" s="8"/>
@@ -6578,7 +6591,7 @@
       <c r="Q119" s="8"/>
       <c r="R119" s="8"/>
     </row>
-    <row r="120" spans="2:18" ht="18.75" customHeight="1">
+    <row r="120" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="11"/>
       <c r="C120" s="8"/>
       <c r="D120" s="8"/>
@@ -6597,7 +6610,7 @@
       <c r="Q120" s="8"/>
       <c r="R120" s="8"/>
     </row>
-    <row r="121" spans="2:18" ht="18.75" customHeight="1">
+    <row r="121" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="11"/>
       <c r="C121" s="8"/>
       <c r="D121" s="8"/>
@@ -6616,7 +6629,7 @@
       <c r="Q121" s="8"/>
       <c r="R121" s="8"/>
     </row>
-    <row r="122" spans="2:18" ht="18.75" customHeight="1">
+    <row r="122" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="11"/>
       <c r="C122" s="8"/>
       <c r="D122" s="8"/>
@@ -6635,7 +6648,7 @@
       <c r="Q122" s="8"/>
       <c r="R122" s="8"/>
     </row>
-    <row r="123" spans="2:18" ht="18.75" customHeight="1">
+    <row r="123" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="11"/>
       <c r="C123" s="8"/>
       <c r="D123" s="8"/>
@@ -6654,7 +6667,7 @@
       <c r="Q123" s="8"/>
       <c r="R123" s="8"/>
     </row>
-    <row r="124" spans="2:18" ht="18.75" customHeight="1">
+    <row r="124" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="11"/>
       <c r="C124" s="8"/>
       <c r="D124" s="8"/>
@@ -6673,7 +6686,7 @@
       <c r="Q124" s="8"/>
       <c r="R124" s="8"/>
     </row>
-    <row r="125" spans="2:18" ht="18.75" customHeight="1">
+    <row r="125" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="11"/>
       <c r="C125" s="8"/>
       <c r="D125" s="8"/>
@@ -6692,7 +6705,7 @@
       <c r="Q125" s="8"/>
       <c r="R125" s="8"/>
     </row>
-    <row r="126" spans="2:18" ht="18.75" customHeight="1">
+    <row r="126" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="11"/>
       <c r="C126" s="8"/>
       <c r="D126" s="8"/>
@@ -6711,7 +6724,7 @@
       <c r="Q126" s="8"/>
       <c r="R126" s="8"/>
     </row>
-    <row r="127" spans="2:18" ht="18.75" customHeight="1">
+    <row r="127" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="11"/>
       <c r="C127" s="8"/>
       <c r="D127" s="8"/>
@@ -6730,7 +6743,7 @@
       <c r="Q127" s="8"/>
       <c r="R127" s="8"/>
     </row>
-    <row r="128" spans="2:18" ht="18.75" customHeight="1">
+    <row r="128" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="11"/>
       <c r="C128" s="8"/>
       <c r="D128" s="8"/>
@@ -6749,7 +6762,7 @@
       <c r="Q128" s="8"/>
       <c r="R128" s="8"/>
     </row>
-    <row r="129" spans="2:18" ht="18.75" customHeight="1">
+    <row r="129" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="11"/>
       <c r="C129" s="8"/>
       <c r="D129" s="8"/>
@@ -6768,7 +6781,7 @@
       <c r="Q129" s="8"/>
       <c r="R129" s="8"/>
     </row>
-    <row r="130" spans="2:18" ht="18.75" customHeight="1">
+    <row r="130" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="11"/>
       <c r="C130" s="8"/>
       <c r="D130" s="8"/>
@@ -6787,7 +6800,7 @@
       <c r="Q130" s="8"/>
       <c r="R130" s="8"/>
     </row>
-    <row r="131" spans="2:18" ht="18.75" customHeight="1">
+    <row r="131" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="11"/>
       <c r="C131" s="8"/>
       <c r="D131" s="8"/>
@@ -6806,7 +6819,7 @@
       <c r="Q131" s="8"/>
       <c r="R131" s="8"/>
     </row>
-    <row r="132" spans="2:18" ht="18.75" customHeight="1">
+    <row r="132" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="11"/>
       <c r="C132" s="8"/>
       <c r="D132" s="8"/>
@@ -6825,7 +6838,7 @@
       <c r="Q132" s="8"/>
       <c r="R132" s="8"/>
     </row>
-    <row r="133" spans="2:18" ht="18.75" customHeight="1">
+    <row r="133" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="11"/>
       <c r="C133" s="8"/>
       <c r="D133" s="8"/>
@@ -6844,7 +6857,7 @@
       <c r="Q133" s="8"/>
       <c r="R133" s="8"/>
     </row>
-    <row r="134" spans="2:18" ht="18.75" customHeight="1">
+    <row r="134" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="11"/>
       <c r="C134" s="8"/>
       <c r="D134" s="8"/>
@@ -6863,7 +6876,7 @@
       <c r="Q134" s="8"/>
       <c r="R134" s="8"/>
     </row>
-    <row r="135" spans="2:18" ht="18.75" customHeight="1">
+    <row r="135" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="11"/>
       <c r="C135" s="8"/>
       <c r="D135" s="8"/>
@@ -6882,7 +6895,7 @@
       <c r="Q135" s="8"/>
       <c r="R135" s="8"/>
     </row>
-    <row r="136" spans="2:18" ht="18.75" customHeight="1">
+    <row r="136" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="11"/>
       <c r="C136" s="8"/>
       <c r="D136" s="8"/>
@@ -6901,7 +6914,7 @@
       <c r="Q136" s="8"/>
       <c r="R136" s="8"/>
     </row>
-    <row r="137" spans="2:18" ht="18.75" customHeight="1">
+    <row r="137" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="11"/>
       <c r="C137" s="8"/>
       <c r="D137" s="8"/>
@@ -6920,7 +6933,7 @@
       <c r="Q137" s="8"/>
       <c r="R137" s="8"/>
     </row>
-    <row r="138" spans="2:18" ht="18.75" customHeight="1">
+    <row r="138" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="11"/>
       <c r="C138" s="8"/>
       <c r="D138" s="8"/>
@@ -6939,7 +6952,7 @@
       <c r="Q138" s="8"/>
       <c r="R138" s="8"/>
     </row>
-    <row r="139" spans="2:18" ht="18.75" customHeight="1">
+    <row r="139" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="11"/>
       <c r="C139" s="8"/>
       <c r="D139" s="8"/>
@@ -6958,7 +6971,7 @@
       <c r="Q139" s="8"/>
       <c r="R139" s="8"/>
     </row>
-    <row r="140" spans="2:18" ht="18.75" customHeight="1">
+    <row r="140" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="11"/>
       <c r="C140" s="8"/>
       <c r="D140" s="8"/>
@@ -6977,7 +6990,7 @@
       <c r="Q140" s="8"/>
       <c r="R140" s="8"/>
     </row>
-    <row r="141" spans="2:18" ht="18.75" customHeight="1">
+    <row r="141" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="11"/>
       <c r="C141" s="8"/>
       <c r="D141" s="8"/>
@@ -6996,7 +7009,7 @@
       <c r="Q141" s="8"/>
       <c r="R141" s="8"/>
     </row>
-    <row r="142" spans="2:18" ht="18.75" customHeight="1">
+    <row r="142" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="11"/>
       <c r="C142" s="8"/>
       <c r="D142" s="8"/>
@@ -7015,7 +7028,7 @@
       <c r="Q142" s="8"/>
       <c r="R142" s="8"/>
     </row>
-    <row r="143" spans="2:18" ht="18.75" customHeight="1">
+    <row r="143" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="11"/>
       <c r="C143" s="8"/>
       <c r="D143" s="8"/>
@@ -7034,7 +7047,7 @@
       <c r="Q143" s="8"/>
       <c r="R143" s="8"/>
     </row>
-    <row r="144" spans="2:18" ht="18.75" customHeight="1">
+    <row r="144" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="11"/>
       <c r="C144" s="8"/>
       <c r="D144" s="8"/>
@@ -7053,7 +7066,7 @@
       <c r="Q144" s="8"/>
       <c r="R144" s="8"/>
     </row>
-    <row r="145" spans="2:18" ht="18.75" customHeight="1">
+    <row r="145" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="11"/>
       <c r="C145" s="8"/>
       <c r="D145" s="8"/>
@@ -7072,7 +7085,7 @@
       <c r="Q145" s="8"/>
       <c r="R145" s="8"/>
     </row>
-    <row r="146" spans="2:18" ht="18.75" customHeight="1">
+    <row r="146" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="11"/>
       <c r="C146" s="8"/>
       <c r="D146" s="8"/>
@@ -7091,7 +7104,7 @@
       <c r="Q146" s="8"/>
       <c r="R146" s="8"/>
     </row>
-    <row r="147" spans="2:18" ht="18.75" customHeight="1">
+    <row r="147" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="11"/>
       <c r="C147" s="8"/>
       <c r="D147" s="8"/>
@@ -7110,7 +7123,7 @@
       <c r="Q147" s="8"/>
       <c r="R147" s="8"/>
     </row>
-    <row r="148" spans="2:18" ht="18.75" customHeight="1">
+    <row r="148" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="11"/>
       <c r="C148" s="8"/>
       <c r="D148" s="8"/>
@@ -7129,7 +7142,7 @@
       <c r="Q148" s="8"/>
       <c r="R148" s="8"/>
     </row>
-    <row r="149" spans="2:18" ht="18.75" customHeight="1">
+    <row r="149" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="11"/>
       <c r="C149" s="8"/>
       <c r="D149" s="8"/>
@@ -7148,7 +7161,7 @@
       <c r="Q149" s="8"/>
       <c r="R149" s="8"/>
     </row>
-    <row r="150" spans="2:18" ht="18.75" customHeight="1">
+    <row r="150" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" s="11"/>
       <c r="C150" s="8"/>
       <c r="D150" s="8"/>
@@ -7167,7 +7180,7 @@
       <c r="Q150" s="8"/>
       <c r="R150" s="8"/>
     </row>
-    <row r="151" spans="2:18" ht="18.75" customHeight="1">
+    <row r="151" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B151" s="11"/>
       <c r="C151" s="8"/>
       <c r="D151" s="8"/>
@@ -7187,6 +7200,13 @@
       <c r="R151" s="8"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:R57" xr:uid="{C3AB3A16-591D-B044-B64F-4E3FA8F26F09}">
+    <filterColumn colId="15">
+      <filters>
+        <filter val="Mono"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:O57">
     <sortCondition ref="O2:O57"/>
     <sortCondition ref="D2:D57"/>

--- a/Nomina_trabajos finales.xlsx
+++ b/Nomina_trabajos finales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rogerruizescobar/Documents/UDABOL/UDABOL_202202/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F31C16-4BFF-444E-8579-F8F058264961}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7173210-7BDA-974E-8516-E05730B2FD9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="461">
   <si>
     <t>Leonardo</t>
   </si>
@@ -2583,7 +2583,7 @@
   <dimension ref="A1:R151"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P58" sqref="P58"/>
+      <selection activeCell="P53" sqref="P53:P57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4897,7 +4897,7 @@
       <c r="Q47" s="8"/>
       <c r="R47" s="8"/>
     </row>
-    <row r="48" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="18">
         <v>38</v>
       </c>
@@ -4950,7 +4950,7 @@
       <c r="Q48" s="8"/>
       <c r="R48" s="8"/>
     </row>
-    <row r="49" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="18">
         <v>48</v>
       </c>
@@ -4997,7 +4997,9 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="P49" s="8"/>
+      <c r="P49" s="8" t="s">
+        <v>458</v>
+      </c>
       <c r="Q49" s="8"/>
       <c r="R49" s="8"/>
     </row>
@@ -5054,7 +5056,7 @@
       <c r="Q50" s="8"/>
       <c r="R50" s="8"/>
     </row>
-    <row r="51" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="18">
         <v>18</v>
       </c>
@@ -5101,11 +5103,13 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="P51" s="8"/>
+      <c r="P51" s="8" t="s">
+        <v>458</v>
+      </c>
       <c r="Q51" s="8"/>
       <c r="R51" s="8"/>
     </row>
-    <row r="52" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="18">
         <v>28</v>
       </c>
@@ -5152,7 +5156,9 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="P52" s="8"/>
+      <c r="P52" s="8" t="s">
+        <v>458</v>
+      </c>
       <c r="Q52" s="8"/>
       <c r="R52" s="8"/>
     </row>
@@ -5256,7 +5262,9 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="P54" s="8"/>
+      <c r="P54" s="8" t="s">
+        <v>459</v>
+      </c>
       <c r="Q54" s="8"/>
       <c r="R54" s="8"/>
     </row>
@@ -5307,7 +5315,9 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="P55" s="8"/>
+      <c r="P55" s="8" t="s">
+        <v>459</v>
+      </c>
       <c r="Q55" s="8"/>
       <c r="R55" s="8"/>
     </row>
@@ -5358,7 +5368,9 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="P56" s="8"/>
+      <c r="P56" s="8" t="s">
+        <v>459</v>
+      </c>
       <c r="Q56" s="8"/>
       <c r="R56" s="8"/>
     </row>
@@ -5409,7 +5421,9 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="P57" s="8"/>
+      <c r="P57" s="8" t="s">
+        <v>459</v>
+      </c>
       <c r="Q57" s="8"/>
       <c r="R57" s="8"/>
     </row>
@@ -7204,6 +7218,7 @@
     <filterColumn colId="15">
       <filters>
         <filter val="Mono"/>
+        <filter val="Presentacion Menu Operaciones con mensajes"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Nomina_trabajos finales.xlsx
+++ b/Nomina_trabajos finales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rogerruizescobar/Documents/UDABOL/UDABOL_202202/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7173210-7BDA-974E-8516-E05730B2FD9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3ACFC9-92A5-6D47-87FB-63C869CCF138}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="471">
   <si>
     <t>Leonardo</t>
   </si>
@@ -1412,6 +1412,36 @@
   </si>
   <si>
     <t>Mono</t>
+  </si>
+  <si>
+    <t>insert_delete_PgSql</t>
+  </si>
+  <si>
+    <t>Rama</t>
+  </si>
+  <si>
+    <t>modelo</t>
+  </si>
+  <si>
+    <t>negocio1</t>
+  </si>
+  <si>
+    <t>negocio2</t>
+  </si>
+  <si>
+    <t>negocio3</t>
+  </si>
+  <si>
+    <t>negocio4</t>
+  </si>
+  <si>
+    <t>negocio5</t>
+  </si>
+  <si>
+    <t>negocio6</t>
+  </si>
+  <si>
+    <t>presentacion_mensaje</t>
   </si>
 </sst>
 </file>
@@ -1495,12 +1525,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1531,7 +1567,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1581,6 +1617,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2579,11 +2626,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:R151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P53" sqref="P53:P57"/>
+    <sheetView tabSelected="1" topLeftCell="L40" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q51" sqref="Q51:Q52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2600,7 +2646,10 @@
     <col min="11" max="11" width="37.1640625" customWidth="1"/>
     <col min="12" max="12" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="13.5" customWidth="1"/>
+    <col min="14" max="15" width="13.5" customWidth="1"/>
+    <col min="16" max="16" width="39" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17" customWidth="1"/>
+    <col min="18" max="18" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2646,10 +2695,12 @@
         <v>450</v>
       </c>
       <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
+      <c r="Q1" s="8" t="s">
+        <v>462</v>
+      </c>
       <c r="R1" s="8"/>
     </row>
-    <row r="2" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18">
         <v>20</v>
       </c>
@@ -2702,7 +2753,7 @@
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
     </row>
-    <row r="3" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18">
         <v>10</v>
       </c>
@@ -2749,11 +2800,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P3" s="8"/>
+      <c r="P3" s="8" t="s">
+        <v>455</v>
+      </c>
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
     </row>
-    <row r="4" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18">
         <v>50</v>
       </c>
@@ -2798,11 +2851,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P4" s="8"/>
+      <c r="P4" s="8" t="s">
+        <v>455</v>
+      </c>
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
     </row>
-    <row r="5" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18">
         <v>40</v>
       </c>
@@ -2847,11 +2902,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P5" s="8"/>
+      <c r="P5" s="8" t="s">
+        <v>455</v>
+      </c>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
     </row>
-    <row r="6" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18">
         <v>30</v>
       </c>
@@ -2898,11 +2955,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P6" s="8"/>
+      <c r="P6" s="8" t="s">
+        <v>455</v>
+      </c>
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
     </row>
-    <row r="7" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18">
         <v>11</v>
       </c>
@@ -2949,11 +3008,13 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P7" s="8"/>
+      <c r="P7" s="8" t="s">
+        <v>455</v>
+      </c>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
     </row>
-    <row r="8" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18">
         <v>51</v>
       </c>
@@ -3003,10 +3064,12 @@
       <c r="P8" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="Q8" s="8"/>
+      <c r="Q8" s="8" t="s">
+        <v>461</v>
+      </c>
       <c r="R8" s="8"/>
     </row>
-    <row r="9" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18">
         <v>41</v>
       </c>
@@ -3053,11 +3116,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
+      <c r="P9" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>461</v>
+      </c>
       <c r="R9" s="8"/>
     </row>
-    <row r="10" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18">
         <v>31</v>
       </c>
@@ -3104,11 +3171,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
+      <c r="P10" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>461</v>
+      </c>
       <c r="R10" s="8"/>
     </row>
-    <row r="11" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18">
         <v>21</v>
       </c>
@@ -3155,11 +3226,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
+      <c r="P11" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>461</v>
+      </c>
       <c r="R11" s="8"/>
     </row>
-    <row r="12" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18">
         <v>1</v>
       </c>
@@ -3206,11 +3281,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
+      <c r="P12" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>461</v>
+      </c>
       <c r="R12" s="8"/>
     </row>
-    <row r="13" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18">
         <v>32</v>
       </c>
@@ -3260,10 +3339,12 @@
       <c r="P13" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="Q13" s="8"/>
+      <c r="Q13" s="8" t="s">
+        <v>464</v>
+      </c>
       <c r="R13" s="8"/>
     </row>
-    <row r="14" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18">
         <v>42</v>
       </c>
@@ -3308,11 +3389,15 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
+      <c r="P14" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>465</v>
+      </c>
       <c r="R14" s="8"/>
     </row>
-    <row r="15" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18">
         <v>2</v>
       </c>
@@ -3359,11 +3444,15 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
+      <c r="P15" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>466</v>
+      </c>
       <c r="R15" s="8"/>
     </row>
-    <row r="16" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18">
         <v>22</v>
       </c>
@@ -3410,11 +3499,15 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
+      <c r="P16" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>467</v>
+      </c>
       <c r="R16" s="8"/>
     </row>
-    <row r="17" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18">
         <v>12</v>
       </c>
@@ -3461,11 +3554,15 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
+      <c r="P17" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>468</v>
+      </c>
       <c r="R17" s="8"/>
     </row>
-    <row r="18" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18">
         <v>52</v>
       </c>
@@ -3490,297 +3587,323 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
+      <c r="P18" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>469</v>
+      </c>
       <c r="R18" s="8"/>
     </row>
-    <row r="19" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="18">
+    <row r="19" spans="1:18" s="23" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="19">
         <v>33</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="20">
         <v>44816.9083217593</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="21" t="s">
         <v>327</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="21" t="s">
         <v>328</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="K19" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="L19" s="10" t="s">
+      <c r="L19" s="21" t="s">
         <v>330</v>
       </c>
-      <c r="M19" s="10" t="s">
+      <c r="M19" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="N19" s="10">
+      <c r="N19" s="21">
         <v>33</v>
       </c>
-      <c r="O19" s="10">
+      <c r="O19" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="P19" s="8" t="s">
+      <c r="P19" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-    </row>
-    <row r="20" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="18">
+      <c r="Q19" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="R19" s="22"/>
+    </row>
+    <row r="20" spans="1:18" s="23" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="19">
         <v>43</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="20">
         <v>44818.452256944402</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="21" t="s">
         <v>384</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="21" t="s">
         <v>384</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="21" t="s">
         <v>389</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J20" s="21" t="s">
         <v>390</v>
       </c>
-      <c r="K20" s="10" t="s">
+      <c r="K20" s="21" t="s">
         <v>384</v>
       </c>
-      <c r="L20" s="10" t="s">
+      <c r="L20" s="21" t="s">
         <v>391</v>
       </c>
-      <c r="M20" s="10" t="s">
+      <c r="M20" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="N20" s="10">
+      <c r="N20" s="21">
         <v>43</v>
       </c>
-      <c r="O20" s="10">
+      <c r="O20" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-    </row>
-    <row r="21" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="18">
+      <c r="P20" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q20" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="R20" s="22"/>
+    </row>
+    <row r="21" spans="1:18" s="23" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="19">
         <v>23</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="20">
         <v>44816.904606481497</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="H21" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="I21" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="J21" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="K21" s="10" t="s">
+      <c r="K21" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="L21" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="M21" s="10" t="s">
+      <c r="M21" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="N21" s="10">
+      <c r="N21" s="21">
         <v>23</v>
       </c>
-      <c r="O21" s="10">
+      <c r="O21" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-    </row>
-    <row r="22" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="18">
+      <c r="P21" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q21" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="R21" s="22"/>
+    </row>
+    <row r="22" spans="1:18" s="23" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="19">
         <v>13</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="20">
         <v>44816.902129629598</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="I22" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="J22" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="K22" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="L22" s="10" t="s">
+      <c r="L22" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="M22" s="10" t="s">
+      <c r="M22" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="N22" s="10">
+      <c r="N22" s="21">
         <v>13</v>
       </c>
-      <c r="O22" s="10">
+      <c r="O22" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-    </row>
-    <row r="23" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="18">
+      <c r="P22" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q22" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="R22" s="22"/>
+    </row>
+    <row r="23" spans="1:18" s="23" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="19">
         <v>3</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="20">
         <v>44816.900532407402</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="H23" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="I23" s="10" t="s">
+      <c r="I23" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="J23" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="K23" s="10" t="s">
+      <c r="K23" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="L23" s="10" t="s">
+      <c r="L23" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="M23" s="10" t="s">
+      <c r="M23" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="N23" s="10">
+      <c r="N23" s="21">
         <v>3</v>
       </c>
-      <c r="O23" s="10">
+      <c r="O23" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-    </row>
-    <row r="24" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="18">
+      <c r="P23" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q23" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="R23" s="22"/>
+    </row>
+    <row r="24" spans="1:18" s="23" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="19">
         <v>53</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="20" t="s">
         <v>446</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10">
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21">
         <v>53</v>
       </c>
-      <c r="O24" s="10">
+      <c r="O24" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-    </row>
-    <row r="25" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P24" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q24" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="R24" s="22"/>
+    </row>
+    <row r="25" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18">
         <v>4</v>
       </c>
@@ -3886,7 +4009,7 @@
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
     </row>
-    <row r="27" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="18">
         <v>44</v>
       </c>
@@ -3933,11 +4056,13 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="P27" s="8"/>
+      <c r="P27" s="8" t="s">
+        <v>453</v>
+      </c>
       <c r="Q27" s="8"/>
       <c r="R27" s="8"/>
     </row>
-    <row r="28" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18">
         <v>34</v>
       </c>
@@ -3984,7 +4109,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="P28" s="8"/>
+      <c r="P28" s="8" t="s">
+        <v>453</v>
+      </c>
       <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
     </row>
@@ -4041,7 +4168,7 @@
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
     </row>
-    <row r="30" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="18">
         <v>54</v>
       </c>
@@ -4066,11 +4193,13 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="P30" s="8"/>
+      <c r="P30" s="8" t="s">
+        <v>453</v>
+      </c>
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
     </row>
-    <row r="31" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="18">
         <v>5</v>
       </c>
@@ -4123,7 +4252,7 @@
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
     </row>
-    <row r="32" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="18">
         <v>15</v>
       </c>
@@ -4170,11 +4299,13 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="P32" s="8"/>
+      <c r="P32" s="8" t="s">
+        <v>454</v>
+      </c>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
     </row>
-    <row r="33" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="18">
         <v>25</v>
       </c>
@@ -4221,11 +4352,13 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="P33" s="8"/>
+      <c r="P33" s="8" t="s">
+        <v>454</v>
+      </c>
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
     </row>
-    <row r="34" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="18">
         <v>45</v>
       </c>
@@ -4272,11 +4405,13 @@
         <f t="shared" ref="O34:O57" si="1">MOD(N34,10)</f>
         <v>5</v>
       </c>
-      <c r="P34" s="8"/>
+      <c r="P34" s="8" t="s">
+        <v>454</v>
+      </c>
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
     </row>
-    <row r="35" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="18">
         <v>35</v>
       </c>
@@ -4323,11 +4458,13 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="P35" s="8"/>
+      <c r="P35" s="8" t="s">
+        <v>454</v>
+      </c>
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
     </row>
-    <row r="36" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="18">
         <v>55</v>
       </c>
@@ -4352,11 +4489,13 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="P36" s="8"/>
+      <c r="P36" s="8" t="s">
+        <v>454</v>
+      </c>
       <c r="Q36" s="8"/>
       <c r="R36" s="8"/>
     </row>
-    <row r="37" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="18">
         <v>46</v>
       </c>
@@ -4409,7 +4548,7 @@
       <c r="Q37" s="8"/>
       <c r="R37" s="8"/>
     </row>
-    <row r="38" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="18">
         <v>36</v>
       </c>
@@ -4456,11 +4595,13 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="P38" s="8"/>
+      <c r="P38" s="8" t="s">
+        <v>457</v>
+      </c>
       <c r="Q38" s="8"/>
       <c r="R38" s="8"/>
     </row>
-    <row r="39" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="18">
         <v>6</v>
       </c>
@@ -4507,11 +4648,13 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="P39" s="8"/>
+      <c r="P39" s="8" t="s">
+        <v>457</v>
+      </c>
       <c r="Q39" s="8"/>
       <c r="R39" s="8"/>
     </row>
-    <row r="40" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="18">
         <v>26</v>
       </c>
@@ -4558,11 +4701,13 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="P40" s="8"/>
+      <c r="P40" s="8" t="s">
+        <v>457</v>
+      </c>
       <c r="Q40" s="8"/>
       <c r="R40" s="8"/>
     </row>
-    <row r="41" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="18">
         <v>16</v>
       </c>
@@ -4607,11 +4752,13 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="P41" s="8"/>
+      <c r="P41" s="8" t="s">
+        <v>457</v>
+      </c>
       <c r="Q41" s="8"/>
       <c r="R41" s="8"/>
     </row>
-    <row r="42" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="18">
         <v>56</v>
       </c>
@@ -4636,11 +4783,13 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="P42" s="8"/>
+      <c r="P42" s="8" t="s">
+        <v>457</v>
+      </c>
       <c r="Q42" s="8"/>
       <c r="R42" s="8"/>
     </row>
-    <row r="43" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="18">
         <v>47</v>
       </c>
@@ -4693,7 +4842,7 @@
       <c r="Q43" s="8"/>
       <c r="R43" s="8"/>
     </row>
-    <row r="44" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="18">
         <v>17</v>
       </c>
@@ -4740,11 +4889,13 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="P44" s="8"/>
+      <c r="P44" s="8" t="s">
+        <v>456</v>
+      </c>
       <c r="Q44" s="8"/>
       <c r="R44" s="8"/>
     </row>
-    <row r="45" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="18">
         <v>27</v>
       </c>
@@ -4791,11 +4942,13 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="P45" s="8"/>
+      <c r="P45" s="8" t="s">
+        <v>456</v>
+      </c>
       <c r="Q45" s="8"/>
       <c r="R45" s="8"/>
     </row>
-    <row r="46" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="18">
         <v>7</v>
       </c>
@@ -4842,11 +4995,13 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="P46" s="8"/>
+      <c r="P46" s="8" t="s">
+        <v>456</v>
+      </c>
       <c r="Q46" s="8"/>
       <c r="R46" s="8"/>
     </row>
-    <row r="47" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="18">
         <v>37</v>
       </c>
@@ -4893,7 +5048,9 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="P47" s="8"/>
+      <c r="P47" s="8" t="s">
+        <v>456</v>
+      </c>
       <c r="Q47" s="8"/>
       <c r="R47" s="8"/>
     </row>
@@ -4947,7 +5104,9 @@
       <c r="P48" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="Q48" s="8"/>
+      <c r="Q48" s="8" t="s">
+        <v>470</v>
+      </c>
       <c r="R48" s="8"/>
     </row>
     <row r="49" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5000,7 +5159,9 @@
       <c r="P49" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="Q49" s="8"/>
+      <c r="Q49" s="8" t="s">
+        <v>470</v>
+      </c>
       <c r="R49" s="8"/>
     </row>
     <row r="50" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5106,7 +5267,9 @@
       <c r="P51" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="Q51" s="8"/>
+      <c r="Q51" s="8" t="s">
+        <v>470</v>
+      </c>
       <c r="R51" s="8"/>
     </row>
     <row r="52" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5159,10 +5322,12 @@
       <c r="P52" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="Q52" s="8"/>
+      <c r="Q52" s="8" t="s">
+        <v>470</v>
+      </c>
       <c r="R52" s="8"/>
     </row>
-    <row r="53" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="18">
         <v>49</v>
       </c>
@@ -5215,7 +5380,7 @@
       <c r="Q53" s="8"/>
       <c r="R53" s="8"/>
     </row>
-    <row r="54" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="18">
         <v>19</v>
       </c>
@@ -5268,7 +5433,7 @@
       <c r="Q54" s="8"/>
       <c r="R54" s="8"/>
     </row>
-    <row r="55" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="18">
         <v>39</v>
       </c>
@@ -5321,7 +5486,7 @@
       <c r="Q55" s="8"/>
       <c r="R55" s="8"/>
     </row>
-    <row r="56" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="18">
         <v>9</v>
       </c>
@@ -5374,7 +5539,7 @@
       <c r="Q56" s="8"/>
       <c r="R56" s="8"/>
     </row>
-    <row r="57" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="18">
         <v>29</v>
       </c>
@@ -7214,14 +7379,7 @@
       <c r="R151" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R57" xr:uid="{C3AB3A16-591D-B044-B64F-4E3FA8F26F09}">
-    <filterColumn colId="15">
-      <filters>
-        <filter val="Mono"/>
-        <filter val="Presentacion Menu Operaciones con mensajes"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:R57" xr:uid="{C3AB3A16-591D-B044-B64F-4E3FA8F26F09}"/>
   <sortState ref="A2:O57">
     <sortCondition ref="O2:O57"/>
     <sortCondition ref="D2:D57"/>

--- a/Nomina_trabajos finales.xlsx
+++ b/Nomina_trabajos finales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rogerruizescobar/Documents/UDABOL/UDABOL_202202/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3ACFC9-92A5-6D47-87FB-63C869CCF138}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51FAF2A-BC77-B241-8C40-BE50F9844BBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="472">
   <si>
     <t>Leonardo</t>
   </si>
@@ -1442,6 +1442,9 @@
   </si>
   <si>
     <t>presentacion_mensaje</t>
+  </si>
+  <si>
+    <t>insertdelete_sqlite</t>
   </si>
 </sst>
 </file>
@@ -2628,8 +2631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L40" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q51" sqref="Q51:Q52"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2750,7 +2753,9 @@
       <c r="P2" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="Q2" s="8"/>
+      <c r="Q2" s="8" t="s">
+        <v>471</v>
+      </c>
       <c r="R2" s="8"/>
     </row>
     <row r="3" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2803,7 +2808,9 @@
       <c r="P3" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="Q3" s="8"/>
+      <c r="Q3" s="8" t="s">
+        <v>471</v>
+      </c>
       <c r="R3" s="8"/>
     </row>
     <row r="4" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2854,7 +2861,9 @@
       <c r="P4" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="Q4" s="8"/>
+      <c r="Q4" s="8" t="s">
+        <v>471</v>
+      </c>
       <c r="R4" s="8"/>
     </row>
     <row r="5" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2905,7 +2914,9 @@
       <c r="P5" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="Q5" s="8"/>
+      <c r="Q5" s="8" t="s">
+        <v>471</v>
+      </c>
       <c r="R5" s="8"/>
     </row>
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2958,7 +2969,9 @@
       <c r="P6" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="Q6" s="8"/>
+      <c r="Q6" s="8" t="s">
+        <v>471</v>
+      </c>
       <c r="R6" s="8"/>
     </row>
     <row r="7" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3011,7 +3024,9 @@
       <c r="P7" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="Q7" s="8"/>
+      <c r="Q7" s="8" t="s">
+        <v>471</v>
+      </c>
       <c r="R7" s="8"/>
     </row>
     <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/Nomina_trabajos finales.xlsx
+++ b/Nomina_trabajos finales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rogerruizescobar/Documents/UDABOL/UDABOL_202202/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51FAF2A-BC77-B241-8C40-BE50F9844BBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32788D6-12CB-D847-89C5-534B4E8588EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="475">
   <si>
     <t>Leonardo</t>
   </si>
@@ -1445,6 +1445,15 @@
   </si>
   <si>
     <t>insertdelete_sqlite</t>
+  </si>
+  <si>
+    <t>API2_GET_DELETE</t>
+  </si>
+  <si>
+    <t>API_POST_PUT</t>
+  </si>
+  <si>
+    <t>insert_delete_sqlite</t>
   </si>
 </sst>
 </file>
@@ -2631,8 +2640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:Q7"/>
+    <sheetView tabSelected="1" topLeftCell="M18" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q43" sqref="Q43:Q47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3968,7 +3977,9 @@
       <c r="P25" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="Q25" s="8"/>
+      <c r="Q25" s="8" t="s">
+        <v>472</v>
+      </c>
       <c r="R25" s="8"/>
     </row>
     <row r="26" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4074,7 +4085,9 @@
       <c r="P27" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="Q27" s="8"/>
+      <c r="Q27" s="8" t="s">
+        <v>472</v>
+      </c>
       <c r="R27" s="8"/>
     </row>
     <row r="28" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4127,7 +4140,9 @@
       <c r="P28" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="Q28" s="8"/>
+      <c r="Q28" s="8" t="s">
+        <v>472</v>
+      </c>
       <c r="R28" s="8"/>
     </row>
     <row r="29" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4211,7 +4226,9 @@
       <c r="P30" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="Q30" s="8"/>
+      <c r="Q30" s="8" t="s">
+        <v>472</v>
+      </c>
       <c r="R30" s="8"/>
     </row>
     <row r="31" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4317,7 +4334,9 @@
       <c r="P32" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="Q32" s="8"/>
+      <c r="Q32" s="8" t="s">
+        <v>473</v>
+      </c>
       <c r="R32" s="8"/>
     </row>
     <row r="33" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4370,7 +4389,9 @@
       <c r="P33" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="Q33" s="8"/>
+      <c r="Q33" s="8" t="s">
+        <v>473</v>
+      </c>
       <c r="R33" s="8"/>
     </row>
     <row r="34" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4423,7 +4444,9 @@
       <c r="P34" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="Q34" s="8"/>
+      <c r="Q34" s="8" t="s">
+        <v>473</v>
+      </c>
       <c r="R34" s="8"/>
     </row>
     <row r="35" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4476,7 +4499,9 @@
       <c r="P35" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="Q35" s="8"/>
+      <c r="Q35" s="8" t="s">
+        <v>473</v>
+      </c>
       <c r="R35" s="8"/>
     </row>
     <row r="36" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4507,7 +4532,9 @@
       <c r="P36" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="Q36" s="8"/>
+      <c r="Q36" s="8" t="s">
+        <v>473</v>
+      </c>
       <c r="R36" s="8"/>
     </row>
     <row r="37" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4854,7 +4881,9 @@
       <c r="P43" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="Q43" s="8"/>
+      <c r="Q43" s="8" t="s">
+        <v>474</v>
+      </c>
       <c r="R43" s="8"/>
     </row>
     <row r="44" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4907,7 +4936,9 @@
       <c r="P44" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="Q44" s="8"/>
+      <c r="Q44" s="8" t="s">
+        <v>474</v>
+      </c>
       <c r="R44" s="8"/>
     </row>
     <row r="45" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4960,7 +4991,9 @@
       <c r="P45" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="Q45" s="8"/>
+      <c r="Q45" s="8" t="s">
+        <v>474</v>
+      </c>
       <c r="R45" s="8"/>
     </row>
     <row r="46" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5013,7 +5046,9 @@
       <c r="P46" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="Q46" s="8"/>
+      <c r="Q46" s="8" t="s">
+        <v>474</v>
+      </c>
       <c r="R46" s="8"/>
     </row>
     <row r="47" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5066,7 +5101,9 @@
       <c r="P47" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="Q47" s="8"/>
+      <c r="Q47" s="8" t="s">
+        <v>474</v>
+      </c>
       <c r="R47" s="8"/>
     </row>
     <row r="48" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/Nomina_trabajos finales.xlsx
+++ b/Nomina_trabajos finales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rogerruizescobar/Documents/UDABOL/UDABOL_202202/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32788D6-12CB-D847-89C5-534B4E8588EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0BA407-719F-3840-BD16-76A6465816C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="470">
   <si>
     <t>Leonardo</t>
   </si>
@@ -1424,21 +1424,6 @@
   </si>
   <si>
     <t>negocio1</t>
-  </si>
-  <si>
-    <t>negocio2</t>
-  </si>
-  <si>
-    <t>negocio3</t>
-  </si>
-  <si>
-    <t>negocio4</t>
-  </si>
-  <si>
-    <t>negocio5</t>
-  </si>
-  <si>
-    <t>negocio6</t>
   </si>
   <si>
     <t>presentacion_mensaje</t>
@@ -1463,7 +1448,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1537,7 +1522,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1547,6 +1532,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1579,7 +1570,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1640,6 +1631,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1961,7 +1963,7 @@
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
@@ -1969,7 +1971,7 @@
     <col min="6" max="6" width="13.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -1986,7 +1988,7 @@
         <v>9845916</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="18.75" customHeight="1">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -2006,7 +2008,7 @@
         <v>4308676</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="18.75" customHeight="1">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -2026,7 +2028,7 @@
         <v>5273148</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="18.75" customHeight="1">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -2046,7 +2048,7 @@
         <v>10680663</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="18.75" customHeight="1">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -2066,7 +2068,7 @@
         <v>5246381</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="18.75" customHeight="1">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -2086,7 +2088,7 @@
         <v>12873339</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="18.75" customHeight="1">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -2106,7 +2108,7 @@
         <v>7351544</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="18.75" customHeight="1">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -2126,7 +2128,7 @@
         <v>7296889</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="18.75" customHeight="1">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -2146,7 +2148,7 @@
         <v>9083846</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="18.75" customHeight="1">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -2163,7 +2165,7 @@
         <v>8437859</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="18.75" customHeight="1">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -2183,7 +2185,7 @@
         <v>11304597</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="18.75" customHeight="1">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -2200,7 +2202,7 @@
         <v>8911045</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="18.75" customHeight="1">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -2217,7 +2219,7 @@
         <v>6717766</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="18.75" customHeight="1">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -2237,7 +2239,7 @@
         <v>2631732</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="18.75" customHeight="1">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -2254,7 +2256,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="18.75" customHeight="1">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -2274,7 +2276,7 @@
         <v>33970</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="18.75" customHeight="1">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -2294,7 +2296,7 @@
         <v>9899773</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="18.75" customHeight="1">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -2314,7 +2316,7 @@
         <v>7041610</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="18.75" customHeight="1">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -2334,7 +2336,7 @@
         <v>12669252</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="18.75" customHeight="1">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -2354,7 +2356,7 @@
         <v>10931935</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="18.75" customHeight="1">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -2374,7 +2376,7 @@
         <v>6920030</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="18.75" customHeight="1">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -2394,7 +2396,7 @@
         <v>6434495</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="18.75" customHeight="1">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -2414,7 +2416,7 @@
         <v>9155549</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="18.75" customHeight="1">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -2431,7 +2433,7 @@
         <v>6823974</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="18.75" customHeight="1">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -2451,7 +2453,7 @@
         <v>2622061</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="18.75" customHeight="1">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -2468,7 +2470,7 @@
         <v>7838112</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="18.75" customHeight="1">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -2488,7 +2490,7 @@
         <v>12864046</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="18.75" customHeight="1">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -2508,7 +2510,7 @@
         <v>9110161</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="18.75" customHeight="1">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -2522,7 +2524,7 @@
         <v>9911855</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="18.75" customHeight="1">
       <c r="A30" s="1">
         <v>30</v>
       </c>
@@ -2539,7 +2541,7 @@
         <v>9459513</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="18.75" customHeight="1">
       <c r="A31" s="1">
         <v>31</v>
       </c>
@@ -2556,7 +2558,7 @@
         <v>10954950</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="18.75" customHeight="1">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -2573,7 +2575,7 @@
         <v>8028972</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="18.75" customHeight="1">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -2593,7 +2595,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="16">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -2613,7 +2615,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="16">
       <c r="A35">
         <v>35</v>
       </c>
@@ -2640,11 +2642,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M18" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q43" sqref="Q43:Q47"/>
+    <sheetView tabSelected="1" topLeftCell="L10" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14:Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
@@ -2660,11 +2662,11 @@
     <col min="13" max="13" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="13.5" customWidth="1"/>
     <col min="16" max="16" width="39" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17" customWidth="1"/>
+    <col min="17" max="17" width="23.83203125" customWidth="1"/>
     <col min="18" max="18" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="18.75" customHeight="1">
       <c r="A1" s="18"/>
       <c r="B1" s="6" t="s">
         <v>114</v>
@@ -2712,7 +2714,7 @@
       </c>
       <c r="R1" s="8"/>
     </row>
-    <row r="2" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="18.75" customHeight="1">
       <c r="A2" s="18">
         <v>20</v>
       </c>
@@ -2763,11 +2765,11 @@
         <v>455</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="R2" s="8"/>
     </row>
-    <row r="3" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="18.75" customHeight="1">
       <c r="A3" s="18">
         <v>10</v>
       </c>
@@ -2818,11 +2820,11 @@
         <v>455</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="R3" s="8"/>
     </row>
-    <row r="4" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="18.75" customHeight="1">
       <c r="A4" s="18">
         <v>50</v>
       </c>
@@ -2871,11 +2873,11 @@
         <v>455</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="R4" s="8"/>
     </row>
-    <row r="5" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="18.75" customHeight="1">
       <c r="A5" s="18">
         <v>40</v>
       </c>
@@ -2924,11 +2926,11 @@
         <v>455</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="R5" s="8"/>
     </row>
-    <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="18.75" customHeight="1">
       <c r="A6" s="18">
         <v>30</v>
       </c>
@@ -2979,11 +2981,11 @@
         <v>455</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="R6" s="8"/>
     </row>
-    <row r="7" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="18.75" customHeight="1">
       <c r="A7" s="18">
         <v>11</v>
       </c>
@@ -3034,11 +3036,11 @@
         <v>455</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="R7" s="8"/>
     </row>
-    <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="18.75" customHeight="1">
       <c r="A8" s="18">
         <v>51</v>
       </c>
@@ -3093,7 +3095,7 @@
       </c>
       <c r="R8" s="8"/>
     </row>
-    <row r="9" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="18.75" customHeight="1">
       <c r="A9" s="18">
         <v>41</v>
       </c>
@@ -3148,7 +3150,7 @@
       </c>
       <c r="R9" s="8"/>
     </row>
-    <row r="10" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="18.75" customHeight="1">
       <c r="A10" s="18">
         <v>31</v>
       </c>
@@ -3203,7 +3205,7 @@
       </c>
       <c r="R10" s="8"/>
     </row>
-    <row r="11" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="18.75" customHeight="1">
       <c r="A11" s="18">
         <v>21</v>
       </c>
@@ -3258,7 +3260,7 @@
       </c>
       <c r="R11" s="8"/>
     </row>
-    <row r="12" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="18.75" customHeight="1">
       <c r="A12" s="18">
         <v>1</v>
       </c>
@@ -3313,7 +3315,7 @@
       </c>
       <c r="R12" s="8"/>
     </row>
-    <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="18.75" customHeight="1">
       <c r="A13" s="18">
         <v>32</v>
       </c>
@@ -3368,7 +3370,7 @@
       </c>
       <c r="R13" s="8"/>
     </row>
-    <row r="14" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="18.75" customHeight="1">
       <c r="A14" s="18">
         <v>42</v>
       </c>
@@ -3417,11 +3419,11 @@
         <v>451</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="R14" s="8"/>
     </row>
-    <row r="15" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="18.75" customHeight="1">
       <c r="A15" s="18">
         <v>2</v>
       </c>
@@ -3472,11 +3474,11 @@
         <v>451</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="R15" s="8"/>
     </row>
-    <row r="16" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="18.75" customHeight="1">
       <c r="A16" s="18">
         <v>22</v>
       </c>
@@ -3527,11 +3529,11 @@
         <v>451</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="R16" s="8"/>
     </row>
-    <row r="17" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" ht="18.75" customHeight="1">
       <c r="A17" s="18">
         <v>12</v>
       </c>
@@ -3582,11 +3584,11 @@
         <v>451</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="R17" s="8"/>
     </row>
-    <row r="18" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" ht="18.75" customHeight="1">
       <c r="A18" s="18">
         <v>52</v>
       </c>
@@ -3615,11 +3617,11 @@
         <v>451</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="R18" s="8"/>
     </row>
-    <row r="19" spans="1:18" s="23" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" s="23" customFormat="1" ht="18.75" customHeight="1">
       <c r="A19" s="19">
         <v>33</v>
       </c>
@@ -3674,7 +3676,7 @@
       </c>
       <c r="R19" s="22"/>
     </row>
-    <row r="20" spans="1:18" s="23" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" s="23" customFormat="1" ht="18.75" customHeight="1">
       <c r="A20" s="19">
         <v>43</v>
       </c>
@@ -3729,7 +3731,7 @@
       </c>
       <c r="R20" s="22"/>
     </row>
-    <row r="21" spans="1:18" s="23" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" s="23" customFormat="1" ht="18.75" customHeight="1">
       <c r="A21" s="19">
         <v>23</v>
       </c>
@@ -3784,7 +3786,7 @@
       </c>
       <c r="R21" s="22"/>
     </row>
-    <row r="22" spans="1:18" s="23" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" s="23" customFormat="1" ht="18.75" customHeight="1">
       <c r="A22" s="19">
         <v>13</v>
       </c>
@@ -3839,7 +3841,7 @@
       </c>
       <c r="R22" s="22"/>
     </row>
-    <row r="23" spans="1:18" s="23" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" s="23" customFormat="1" ht="18.75" customHeight="1">
       <c r="A23" s="19">
         <v>3</v>
       </c>
@@ -3894,7 +3896,7 @@
       </c>
       <c r="R23" s="22"/>
     </row>
-    <row r="24" spans="1:18" s="23" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" s="23" customFormat="1" ht="18.75" customHeight="1">
       <c r="A24" s="19">
         <v>53</v>
       </c>
@@ -3927,7 +3929,7 @@
       </c>
       <c r="R24" s="22"/>
     </row>
-    <row r="25" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" ht="18.75" customHeight="1">
       <c r="A25" s="18">
         <v>4</v>
       </c>
@@ -3978,11 +3980,11 @@
         <v>453</v>
       </c>
       <c r="Q25" s="8" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="R25" s="8"/>
     </row>
-    <row r="26" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" ht="18.75" customHeight="1">
       <c r="A26" s="18">
         <v>24</v>
       </c>
@@ -4035,7 +4037,7 @@
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
     </row>
-    <row r="27" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" ht="18.75" customHeight="1">
       <c r="A27" s="18">
         <v>44</v>
       </c>
@@ -4086,11 +4088,11 @@
         <v>453</v>
       </c>
       <c r="Q27" s="8" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="R27" s="8"/>
     </row>
-    <row r="28" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" ht="18.75" customHeight="1">
       <c r="A28" s="18">
         <v>34</v>
       </c>
@@ -4141,11 +4143,11 @@
         <v>453</v>
       </c>
       <c r="Q28" s="8" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="R28" s="8"/>
     </row>
-    <row r="29" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" ht="18.75" customHeight="1">
       <c r="A29" s="18">
         <v>14</v>
       </c>
@@ -4198,7 +4200,7 @@
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
     </row>
-    <row r="30" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" ht="18.75" customHeight="1">
       <c r="A30" s="18">
         <v>54</v>
       </c>
@@ -4227,11 +4229,11 @@
         <v>453</v>
       </c>
       <c r="Q30" s="8" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="R30" s="8"/>
     </row>
-    <row r="31" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" ht="18.75" customHeight="1">
       <c r="A31" s="18">
         <v>5</v>
       </c>
@@ -4284,7 +4286,7 @@
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
     </row>
-    <row r="32" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" ht="18.75" customHeight="1">
       <c r="A32" s="18">
         <v>15</v>
       </c>
@@ -4335,11 +4337,11 @@
         <v>454</v>
       </c>
       <c r="Q32" s="8" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="R32" s="8"/>
     </row>
-    <row r="33" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" ht="18.75" customHeight="1">
       <c r="A33" s="18">
         <v>25</v>
       </c>
@@ -4390,11 +4392,11 @@
         <v>454</v>
       </c>
       <c r="Q33" s="8" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="R33" s="8"/>
     </row>
-    <row r="34" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" ht="18.75" customHeight="1">
       <c r="A34" s="18">
         <v>45</v>
       </c>
@@ -4445,11 +4447,11 @@
         <v>454</v>
       </c>
       <c r="Q34" s="8" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="R34" s="8"/>
     </row>
-    <row r="35" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" ht="18.75" customHeight="1">
       <c r="A35" s="18">
         <v>35</v>
       </c>
@@ -4500,11 +4502,11 @@
         <v>454</v>
       </c>
       <c r="Q35" s="8" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="R35" s="8"/>
     </row>
-    <row r="36" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" ht="18.75" customHeight="1">
       <c r="A36" s="18">
         <v>55</v>
       </c>
@@ -4533,11 +4535,11 @@
         <v>454</v>
       </c>
       <c r="Q36" s="8" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="R36" s="8"/>
     </row>
-    <row r="37" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" ht="18.75" customHeight="1">
       <c r="A37" s="18">
         <v>46</v>
       </c>
@@ -4590,7 +4592,7 @@
       <c r="Q37" s="8"/>
       <c r="R37" s="8"/>
     </row>
-    <row r="38" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" ht="18.75" customHeight="1">
       <c r="A38" s="18">
         <v>36</v>
       </c>
@@ -4643,7 +4645,7 @@
       <c r="Q38" s="8"/>
       <c r="R38" s="8"/>
     </row>
-    <row r="39" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" ht="18.75" customHeight="1">
       <c r="A39" s="18">
         <v>6</v>
       </c>
@@ -4696,7 +4698,7 @@
       <c r="Q39" s="8"/>
       <c r="R39" s="8"/>
     </row>
-    <row r="40" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" ht="18.75" customHeight="1">
       <c r="A40" s="18">
         <v>26</v>
       </c>
@@ -4749,7 +4751,7 @@
       <c r="Q40" s="8"/>
       <c r="R40" s="8"/>
     </row>
-    <row r="41" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" ht="18.75" customHeight="1">
       <c r="A41" s="18">
         <v>16</v>
       </c>
@@ -4800,7 +4802,7 @@
       <c r="Q41" s="8"/>
       <c r="R41" s="8"/>
     </row>
-    <row r="42" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" ht="18.75" customHeight="1">
       <c r="A42" s="18">
         <v>56</v>
       </c>
@@ -4831,282 +4833,292 @@
       <c r="Q42" s="8"/>
       <c r="R42" s="8"/>
     </row>
-    <row r="43" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="18">
+    <row r="43" spans="1:18" s="28" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A43" s="24">
         <v>47</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="25">
         <v>44819.458912037</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="26" t="s">
         <v>412</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E43" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="F43" s="10" t="s">
+      <c r="F43" s="26" t="s">
         <v>413</v>
       </c>
-      <c r="G43" s="10" t="s">
+      <c r="G43" s="26" t="s">
         <v>412</v>
       </c>
-      <c r="H43" s="10" t="s">
+      <c r="H43" s="26" t="s">
         <v>414</v>
       </c>
-      <c r="I43" s="10" t="s">
+      <c r="I43" s="26" t="s">
         <v>415</v>
       </c>
-      <c r="J43" s="10" t="s">
+      <c r="J43" s="26" t="s">
         <v>415</v>
       </c>
-      <c r="K43" s="10" t="s">
+      <c r="K43" s="26" t="s">
         <v>412</v>
       </c>
-      <c r="L43" s="10" t="s">
+      <c r="L43" s="26" t="s">
         <v>416</v>
       </c>
-      <c r="M43" s="10" t="s">
+      <c r="M43" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="N43" s="10">
+      <c r="N43" s="26">
         <v>47</v>
       </c>
-      <c r="O43" s="10">
+      <c r="O43" s="26">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="P43" s="8" t="s">
+      <c r="P43" s="27" t="s">
         <v>456</v>
       </c>
-      <c r="Q43" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="R43" s="8"/>
-    </row>
-    <row r="44" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="18">
+      <c r="Q43" s="27" t="s">
+        <v>469</v>
+      </c>
+      <c r="R43" s="27" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" s="28" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A44" s="24">
         <v>17</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="25">
         <v>44816.903356481504</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="E44" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="F44" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="G44" s="10" t="s">
+      <c r="G44" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="H44" s="10" t="s">
+      <c r="H44" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="I44" s="10" t="s">
+      <c r="I44" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="J44" s="10" t="s">
+      <c r="J44" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="K44" s="10" t="s">
+      <c r="K44" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="L44" s="10" t="s">
+      <c r="L44" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="M44" s="10" t="s">
+      <c r="M44" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="N44" s="10">
+      <c r="N44" s="26">
         <v>17</v>
       </c>
-      <c r="O44" s="10">
+      <c r="O44" s="26">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="P44" s="8" t="s">
+      <c r="P44" s="27" t="s">
         <v>456</v>
       </c>
-      <c r="Q44" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="R44" s="8"/>
-    </row>
-    <row r="45" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="18">
+      <c r="Q44" s="27" t="s">
+        <v>469</v>
+      </c>
+      <c r="R44" s="27" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" s="28" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A45" s="24">
         <v>27</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="25">
         <v>44816.9061111111</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="26" t="s">
         <v>282</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E45" s="26" t="s">
         <v>283</v>
       </c>
-      <c r="F45" s="10" t="s">
+      <c r="F45" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="G45" s="10" t="s">
+      <c r="G45" s="26" t="s">
         <v>282</v>
       </c>
-      <c r="H45" s="10" t="s">
+      <c r="H45" s="26" t="s">
         <v>285</v>
       </c>
-      <c r="I45" s="10" t="s">
+      <c r="I45" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="J45" s="10" t="s">
+      <c r="J45" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="K45" s="10" t="s">
+      <c r="K45" s="26" t="s">
         <v>282</v>
       </c>
-      <c r="L45" s="10" t="s">
+      <c r="L45" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="M45" s="10" t="s">
+      <c r="M45" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="N45" s="10">
+      <c r="N45" s="26">
         <v>27</v>
       </c>
-      <c r="O45" s="10">
+      <c r="O45" s="26">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="P45" s="8" t="s">
+      <c r="P45" s="27" t="s">
         <v>456</v>
       </c>
-      <c r="Q45" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="R45" s="8"/>
-    </row>
-    <row r="46" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="18">
+      <c r="Q45" s="27" t="s">
+        <v>469</v>
+      </c>
+      <c r="R45" s="27" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" s="28" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A46" s="24">
         <v>7</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46" s="25">
         <v>44816.900902777801</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="E46" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="F46" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="G46" s="10" t="s">
+      <c r="G46" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="H46" s="10" t="s">
+      <c r="H46" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="I46" s="10" t="s">
+      <c r="I46" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="J46" s="10" t="s">
+      <c r="J46" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="K46" s="10" t="s">
+      <c r="K46" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="L46" s="10" t="s">
+      <c r="L46" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="M46" s="10" t="s">
+      <c r="M46" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="N46" s="10">
+      <c r="N46" s="26">
         <v>7</v>
       </c>
-      <c r="O46" s="10">
+      <c r="O46" s="26">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="P46" s="8" t="s">
+      <c r="P46" s="27" t="s">
         <v>456</v>
       </c>
-      <c r="Q46" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="R46" s="8"/>
-    </row>
-    <row r="47" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="18">
+      <c r="Q46" s="27" t="s">
+        <v>469</v>
+      </c>
+      <c r="R46" s="27" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" s="28" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A47" s="24">
         <v>37</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B47" s="25">
         <v>44816.935821759304</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="26" t="s">
         <v>345</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="E47" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="F47" s="26" t="s">
         <v>346</v>
       </c>
-      <c r="G47" s="10" t="s">
+      <c r="G47" s="26" t="s">
         <v>347</v>
       </c>
-      <c r="H47" s="10" t="s">
+      <c r="H47" s="26" t="s">
         <v>348</v>
       </c>
-      <c r="I47" s="10" t="s">
+      <c r="I47" s="26" t="s">
         <v>349</v>
       </c>
-      <c r="J47" s="10" t="s">
+      <c r="J47" s="26" t="s">
         <v>349</v>
       </c>
-      <c r="K47" s="10" t="s">
+      <c r="K47" s="26" t="s">
         <v>345</v>
       </c>
-      <c r="L47" s="10" t="s">
+      <c r="L47" s="26" t="s">
         <v>347</v>
       </c>
-      <c r="M47" s="10" t="s">
+      <c r="M47" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="N47" s="10">
+      <c r="N47" s="26">
         <v>37</v>
       </c>
-      <c r="O47" s="10">
+      <c r="O47" s="26">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="P47" s="8" t="s">
+      <c r="P47" s="27" t="s">
         <v>456</v>
       </c>
-      <c r="Q47" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="R47" s="8"/>
-    </row>
-    <row r="48" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q47" s="27" t="s">
+        <v>469</v>
+      </c>
+      <c r="R47" s="27" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="18.75" customHeight="1">
       <c r="A48" s="18">
         <v>38</v>
       </c>
@@ -5157,11 +5169,11 @@
         <v>458</v>
       </c>
       <c r="Q48" s="8" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="R48" s="8"/>
     </row>
-    <row r="49" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" ht="18.75" customHeight="1">
       <c r="A49" s="18">
         <v>48</v>
       </c>
@@ -5212,11 +5224,11 @@
         <v>458</v>
       </c>
       <c r="Q49" s="8" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="R49" s="8"/>
     </row>
-    <row r="50" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" ht="18.75" customHeight="1">
       <c r="A50" s="18">
         <v>8</v>
       </c>
@@ -5269,7 +5281,7 @@
       <c r="Q50" s="8"/>
       <c r="R50" s="8"/>
     </row>
-    <row r="51" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" ht="18.75" customHeight="1">
       <c r="A51" s="18">
         <v>18</v>
       </c>
@@ -5320,11 +5332,11 @@
         <v>458</v>
       </c>
       <c r="Q51" s="8" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="R51" s="8"/>
     </row>
-    <row r="52" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" ht="18.75" customHeight="1">
       <c r="A52" s="18">
         <v>28</v>
       </c>
@@ -5375,11 +5387,11 @@
         <v>458</v>
       </c>
       <c r="Q52" s="8" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="R52" s="8"/>
     </row>
-    <row r="53" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" ht="18.75" customHeight="1">
       <c r="A53" s="18">
         <v>49</v>
       </c>
@@ -5432,7 +5444,7 @@
       <c r="Q53" s="8"/>
       <c r="R53" s="8"/>
     </row>
-    <row r="54" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" ht="18.75" customHeight="1">
       <c r="A54" s="18">
         <v>19</v>
       </c>
@@ -5485,7 +5497,7 @@
       <c r="Q54" s="8"/>
       <c r="R54" s="8"/>
     </row>
-    <row r="55" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" ht="18.75" customHeight="1">
       <c r="A55" s="18">
         <v>39</v>
       </c>
@@ -5538,7 +5550,7 @@
       <c r="Q55" s="8"/>
       <c r="R55" s="8"/>
     </row>
-    <row r="56" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" ht="18.75" customHeight="1">
       <c r="A56" s="18">
         <v>9</v>
       </c>
@@ -5591,7 +5603,7 @@
       <c r="Q56" s="8"/>
       <c r="R56" s="8"/>
     </row>
-    <row r="57" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" ht="18.75" customHeight="1">
       <c r="A57" s="18">
         <v>29</v>
       </c>
@@ -5644,7 +5656,7 @@
       <c r="Q57" s="8"/>
       <c r="R57" s="8"/>
     </row>
-    <row r="58" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" ht="18.75" customHeight="1">
       <c r="B58" s="11"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -5663,7 +5675,7 @@
       <c r="Q58" s="8"/>
       <c r="R58" s="8"/>
     </row>
-    <row r="59" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" ht="18.75" customHeight="1">
       <c r="B59" s="11"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -5682,7 +5694,7 @@
       <c r="Q59" s="8"/>
       <c r="R59" s="8"/>
     </row>
-    <row r="60" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" ht="18.75" customHeight="1">
       <c r="B60" s="11"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
@@ -5701,7 +5713,7 @@
       <c r="Q60" s="8"/>
       <c r="R60" s="8"/>
     </row>
-    <row r="61" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" ht="18.75" customHeight="1">
       <c r="B61" s="11"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -5720,7 +5732,7 @@
       <c r="Q61" s="8"/>
       <c r="R61" s="8"/>
     </row>
-    <row r="62" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" ht="18.75" customHeight="1">
       <c r="B62" s="11"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
@@ -5739,7 +5751,7 @@
       <c r="Q62" s="8"/>
       <c r="R62" s="8"/>
     </row>
-    <row r="63" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" ht="18.75" customHeight="1">
       <c r="B63" s="11"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
@@ -5758,7 +5770,7 @@
       <c r="Q63" s="8"/>
       <c r="R63" s="8"/>
     </row>
-    <row r="64" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" ht="18.75" customHeight="1">
       <c r="B64" s="11"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -5777,7 +5789,7 @@
       <c r="Q64" s="8"/>
       <c r="R64" s="8"/>
     </row>
-    <row r="65" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:18" ht="18.75" customHeight="1">
       <c r="B65" s="11"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -5796,7 +5808,7 @@
       <c r="Q65" s="8"/>
       <c r="R65" s="8"/>
     </row>
-    <row r="66" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:18" ht="18.75" customHeight="1">
       <c r="B66" s="11"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
@@ -5815,7 +5827,7 @@
       <c r="Q66" s="8"/>
       <c r="R66" s="8"/>
     </row>
-    <row r="67" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" ht="18.75" customHeight="1">
       <c r="B67" s="11"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -5834,7 +5846,7 @@
       <c r="Q67" s="8"/>
       <c r="R67" s="8"/>
     </row>
-    <row r="68" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:18" ht="18.75" customHeight="1">
       <c r="B68" s="11"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -5853,7 +5865,7 @@
       <c r="Q68" s="8"/>
       <c r="R68" s="8"/>
     </row>
-    <row r="69" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:18" ht="18.75" customHeight="1">
       <c r="B69" s="11"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
@@ -5872,7 +5884,7 @@
       <c r="Q69" s="8"/>
       <c r="R69" s="8"/>
     </row>
-    <row r="70" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:18" ht="18.75" customHeight="1">
       <c r="B70" s="11"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -5891,7 +5903,7 @@
       <c r="Q70" s="8"/>
       <c r="R70" s="8"/>
     </row>
-    <row r="71" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:18" ht="18.75" customHeight="1">
       <c r="B71" s="11"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
@@ -5910,7 +5922,7 @@
       <c r="Q71" s="8"/>
       <c r="R71" s="8"/>
     </row>
-    <row r="72" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:18" ht="18.75" customHeight="1">
       <c r="B72" s="11"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
@@ -5929,7 +5941,7 @@
       <c r="Q72" s="8"/>
       <c r="R72" s="8"/>
     </row>
-    <row r="73" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" ht="18.75" customHeight="1">
       <c r="B73" s="11"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -5948,7 +5960,7 @@
       <c r="Q73" s="8"/>
       <c r="R73" s="8"/>
     </row>
-    <row r="74" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:18" ht="18.75" customHeight="1">
       <c r="B74" s="11"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
@@ -5967,7 +5979,7 @@
       <c r="Q74" s="8"/>
       <c r="R74" s="8"/>
     </row>
-    <row r="75" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:18" ht="18.75" customHeight="1">
       <c r="B75" s="11"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
@@ -5986,7 +5998,7 @@
       <c r="Q75" s="8"/>
       <c r="R75" s="8"/>
     </row>
-    <row r="76" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:18" ht="18.75" customHeight="1">
       <c r="B76" s="11"/>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
@@ -6005,7 +6017,7 @@
       <c r="Q76" s="8"/>
       <c r="R76" s="8"/>
     </row>
-    <row r="77" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" ht="18.75" customHeight="1">
       <c r="B77" s="11"/>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
@@ -6024,7 +6036,7 @@
       <c r="Q77" s="8"/>
       <c r="R77" s="8"/>
     </row>
-    <row r="78" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:18" ht="18.75" customHeight="1">
       <c r="B78" s="11"/>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
@@ -6043,7 +6055,7 @@
       <c r="Q78" s="8"/>
       <c r="R78" s="8"/>
     </row>
-    <row r="79" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:18" ht="18.75" customHeight="1">
       <c r="B79" s="11"/>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
@@ -6062,7 +6074,7 @@
       <c r="Q79" s="8"/>
       <c r="R79" s="8"/>
     </row>
-    <row r="80" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" ht="18.75" customHeight="1">
       <c r="B80" s="11"/>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
@@ -6081,7 +6093,7 @@
       <c r="Q80" s="8"/>
       <c r="R80" s="8"/>
     </row>
-    <row r="81" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:18" ht="18.75" customHeight="1">
       <c r="B81" s="11"/>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
@@ -6100,7 +6112,7 @@
       <c r="Q81" s="8"/>
       <c r="R81" s="8"/>
     </row>
-    <row r="82" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:18" ht="18.75" customHeight="1">
       <c r="B82" s="11"/>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
@@ -6119,7 +6131,7 @@
       <c r="Q82" s="8"/>
       <c r="R82" s="8"/>
     </row>
-    <row r="83" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:18" ht="18.75" customHeight="1">
       <c r="B83" s="11"/>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
@@ -6138,7 +6150,7 @@
       <c r="Q83" s="8"/>
       <c r="R83" s="8"/>
     </row>
-    <row r="84" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:18" ht="18.75" customHeight="1">
       <c r="B84" s="11"/>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
@@ -6157,7 +6169,7 @@
       <c r="Q84" s="8"/>
       <c r="R84" s="8"/>
     </row>
-    <row r="85" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:18" ht="18.75" customHeight="1">
       <c r="B85" s="11"/>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
@@ -6176,7 +6188,7 @@
       <c r="Q85" s="8"/>
       <c r="R85" s="8"/>
     </row>
-    <row r="86" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:18" ht="18.75" customHeight="1">
       <c r="B86" s="11"/>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
@@ -6195,7 +6207,7 @@
       <c r="Q86" s="8"/>
       <c r="R86" s="8"/>
     </row>
-    <row r="87" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:18" ht="18.75" customHeight="1">
       <c r="B87" s="11"/>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
@@ -6214,7 +6226,7 @@
       <c r="Q87" s="8"/>
       <c r="R87" s="8"/>
     </row>
-    <row r="88" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:18" ht="18.75" customHeight="1">
       <c r="B88" s="11"/>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
@@ -6233,7 +6245,7 @@
       <c r="Q88" s="8"/>
       <c r="R88" s="8"/>
     </row>
-    <row r="89" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:18" ht="18.75" customHeight="1">
       <c r="B89" s="11"/>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
@@ -6252,7 +6264,7 @@
       <c r="Q89" s="8"/>
       <c r="R89" s="8"/>
     </row>
-    <row r="90" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:18" ht="18.75" customHeight="1">
       <c r="B90" s="11"/>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
@@ -6271,7 +6283,7 @@
       <c r="Q90" s="8"/>
       <c r="R90" s="8"/>
     </row>
-    <row r="91" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:18" ht="18.75" customHeight="1">
       <c r="B91" s="11"/>
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
@@ -6290,7 +6302,7 @@
       <c r="Q91" s="8"/>
       <c r="R91" s="8"/>
     </row>
-    <row r="92" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:18" ht="18.75" customHeight="1">
       <c r="B92" s="11"/>
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
@@ -6309,7 +6321,7 @@
       <c r="Q92" s="8"/>
       <c r="R92" s="8"/>
     </row>
-    <row r="93" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:18" ht="18.75" customHeight="1">
       <c r="B93" s="11"/>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
@@ -6328,7 +6340,7 @@
       <c r="Q93" s="8"/>
       <c r="R93" s="8"/>
     </row>
-    <row r="94" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:18" ht="18.75" customHeight="1">
       <c r="B94" s="11"/>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
@@ -6347,7 +6359,7 @@
       <c r="Q94" s="8"/>
       <c r="R94" s="8"/>
     </row>
-    <row r="95" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:18" ht="18.75" customHeight="1">
       <c r="B95" s="11"/>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
@@ -6366,7 +6378,7 @@
       <c r="Q95" s="8"/>
       <c r="R95" s="8"/>
     </row>
-    <row r="96" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:18" ht="18.75" customHeight="1">
       <c r="B96" s="11"/>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
@@ -6385,7 +6397,7 @@
       <c r="Q96" s="8"/>
       <c r="R96" s="8"/>
     </row>
-    <row r="97" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:18" ht="18.75" customHeight="1">
       <c r="B97" s="11"/>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
@@ -6404,7 +6416,7 @@
       <c r="Q97" s="8"/>
       <c r="R97" s="8"/>
     </row>
-    <row r="98" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:18" ht="18.75" customHeight="1">
       <c r="B98" s="11"/>
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
@@ -6423,7 +6435,7 @@
       <c r="Q98" s="8"/>
       <c r="R98" s="8"/>
     </row>
-    <row r="99" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:18" ht="18.75" customHeight="1">
       <c r="B99" s="11"/>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
@@ -6442,7 +6454,7 @@
       <c r="Q99" s="8"/>
       <c r="R99" s="8"/>
     </row>
-    <row r="100" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:18" ht="18.75" customHeight="1">
       <c r="B100" s="11"/>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
@@ -6461,7 +6473,7 @@
       <c r="Q100" s="8"/>
       <c r="R100" s="8"/>
     </row>
-    <row r="101" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:18" ht="18.75" customHeight="1">
       <c r="B101" s="11"/>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
@@ -6480,7 +6492,7 @@
       <c r="Q101" s="8"/>
       <c r="R101" s="8"/>
     </row>
-    <row r="102" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:18" ht="18.75" customHeight="1">
       <c r="B102" s="11"/>
       <c r="C102" s="8"/>
       <c r="D102" s="8"/>
@@ -6499,7 +6511,7 @@
       <c r="Q102" s="8"/>
       <c r="R102" s="8"/>
     </row>
-    <row r="103" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:18" ht="18.75" customHeight="1">
       <c r="B103" s="11"/>
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
@@ -6518,7 +6530,7 @@
       <c r="Q103" s="8"/>
       <c r="R103" s="8"/>
     </row>
-    <row r="104" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:18" ht="18.75" customHeight="1">
       <c r="B104" s="11"/>
       <c r="C104" s="8"/>
       <c r="D104" s="8"/>
@@ -6537,7 +6549,7 @@
       <c r="Q104" s="8"/>
       <c r="R104" s="8"/>
     </row>
-    <row r="105" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:18" ht="18.75" customHeight="1">
       <c r="B105" s="11"/>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
@@ -6556,7 +6568,7 @@
       <c r="Q105" s="8"/>
       <c r="R105" s="8"/>
     </row>
-    <row r="106" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:18" ht="18.75" customHeight="1">
       <c r="B106" s="11"/>
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
@@ -6575,7 +6587,7 @@
       <c r="Q106" s="8"/>
       <c r="R106" s="8"/>
     </row>
-    <row r="107" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:18" ht="18.75" customHeight="1">
       <c r="B107" s="11"/>
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
@@ -6594,7 +6606,7 @@
       <c r="Q107" s="8"/>
       <c r="R107" s="8"/>
     </row>
-    <row r="108" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:18" ht="18.75" customHeight="1">
       <c r="B108" s="11"/>
       <c r="C108" s="8"/>
       <c r="D108" s="8"/>
@@ -6613,7 +6625,7 @@
       <c r="Q108" s="8"/>
       <c r="R108" s="8"/>
     </row>
-    <row r="109" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:18" ht="18.75" customHeight="1">
       <c r="B109" s="11"/>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
@@ -6632,7 +6644,7 @@
       <c r="Q109" s="8"/>
       <c r="R109" s="8"/>
     </row>
-    <row r="110" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:18" ht="18.75" customHeight="1">
       <c r="B110" s="11"/>
       <c r="C110" s="8"/>
       <c r="D110" s="8"/>
@@ -6651,7 +6663,7 @@
       <c r="Q110" s="8"/>
       <c r="R110" s="8"/>
     </row>
-    <row r="111" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:18" ht="18.75" customHeight="1">
       <c r="B111" s="11"/>
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
@@ -6670,7 +6682,7 @@
       <c r="Q111" s="8"/>
       <c r="R111" s="8"/>
     </row>
-    <row r="112" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:18" ht="18.75" customHeight="1">
       <c r="B112" s="11"/>
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
@@ -6689,7 +6701,7 @@
       <c r="Q112" s="8"/>
       <c r="R112" s="8"/>
     </row>
-    <row r="113" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:18" ht="18.75" customHeight="1">
       <c r="B113" s="11"/>
       <c r="C113" s="8"/>
       <c r="D113" s="8"/>
@@ -6708,7 +6720,7 @@
       <c r="Q113" s="8"/>
       <c r="R113" s="8"/>
     </row>
-    <row r="114" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:18" ht="18.75" customHeight="1">
       <c r="B114" s="11"/>
       <c r="C114" s="8"/>
       <c r="D114" s="8"/>
@@ -6727,7 +6739,7 @@
       <c r="Q114" s="8"/>
       <c r="R114" s="8"/>
     </row>
-    <row r="115" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:18" ht="18.75" customHeight="1">
       <c r="B115" s="11"/>
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
@@ -6746,7 +6758,7 @@
       <c r="Q115" s="8"/>
       <c r="R115" s="8"/>
     </row>
-    <row r="116" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:18" ht="18.75" customHeight="1">
       <c r="B116" s="11"/>
       <c r="C116" s="8"/>
       <c r="D116" s="8"/>
@@ -6765,7 +6777,7 @@
       <c r="Q116" s="8"/>
       <c r="R116" s="8"/>
     </row>
-    <row r="117" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:18" ht="18.75" customHeight="1">
       <c r="B117" s="11"/>
       <c r="C117" s="8"/>
       <c r="D117" s="8"/>
@@ -6784,7 +6796,7 @@
       <c r="Q117" s="8"/>
       <c r="R117" s="8"/>
     </row>
-    <row r="118" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:18" ht="18.75" customHeight="1">
       <c r="B118" s="11"/>
       <c r="C118" s="8"/>
       <c r="D118" s="8"/>
@@ -6803,7 +6815,7 @@
       <c r="Q118" s="8"/>
       <c r="R118" s="8"/>
     </row>
-    <row r="119" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:18" ht="18.75" customHeight="1">
       <c r="B119" s="11"/>
       <c r="C119" s="8"/>
       <c r="D119" s="8"/>
@@ -6822,7 +6834,7 @@
       <c r="Q119" s="8"/>
       <c r="R119" s="8"/>
     </row>
-    <row r="120" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:18" ht="18.75" customHeight="1">
       <c r="B120" s="11"/>
       <c r="C120" s="8"/>
       <c r="D120" s="8"/>
@@ -6841,7 +6853,7 @@
       <c r="Q120" s="8"/>
       <c r="R120" s="8"/>
     </row>
-    <row r="121" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:18" ht="18.75" customHeight="1">
       <c r="B121" s="11"/>
       <c r="C121" s="8"/>
       <c r="D121" s="8"/>
@@ -6860,7 +6872,7 @@
       <c r="Q121" s="8"/>
       <c r="R121" s="8"/>
     </row>
-    <row r="122" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:18" ht="18.75" customHeight="1">
       <c r="B122" s="11"/>
       <c r="C122" s="8"/>
       <c r="D122" s="8"/>
@@ -6879,7 +6891,7 @@
       <c r="Q122" s="8"/>
       <c r="R122" s="8"/>
     </row>
-    <row r="123" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:18" ht="18.75" customHeight="1">
       <c r="B123" s="11"/>
       <c r="C123" s="8"/>
       <c r="D123" s="8"/>
@@ -6898,7 +6910,7 @@
       <c r="Q123" s="8"/>
       <c r="R123" s="8"/>
     </row>
-    <row r="124" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:18" ht="18.75" customHeight="1">
       <c r="B124" s="11"/>
       <c r="C124" s="8"/>
       <c r="D124" s="8"/>
@@ -6917,7 +6929,7 @@
       <c r="Q124" s="8"/>
       <c r="R124" s="8"/>
     </row>
-    <row r="125" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:18" ht="18.75" customHeight="1">
       <c r="B125" s="11"/>
       <c r="C125" s="8"/>
       <c r="D125" s="8"/>
@@ -6936,7 +6948,7 @@
       <c r="Q125" s="8"/>
       <c r="R125" s="8"/>
     </row>
-    <row r="126" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:18" ht="18.75" customHeight="1">
       <c r="B126" s="11"/>
       <c r="C126" s="8"/>
       <c r="D126" s="8"/>
@@ -6955,7 +6967,7 @@
       <c r="Q126" s="8"/>
       <c r="R126" s="8"/>
     </row>
-    <row r="127" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:18" ht="18.75" customHeight="1">
       <c r="B127" s="11"/>
       <c r="C127" s="8"/>
       <c r="D127" s="8"/>
@@ -6974,7 +6986,7 @@
       <c r="Q127" s="8"/>
       <c r="R127" s="8"/>
     </row>
-    <row r="128" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:18" ht="18.75" customHeight="1">
       <c r="B128" s="11"/>
       <c r="C128" s="8"/>
       <c r="D128" s="8"/>
@@ -6993,7 +7005,7 @@
       <c r="Q128" s="8"/>
       <c r="R128" s="8"/>
     </row>
-    <row r="129" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:18" ht="18.75" customHeight="1">
       <c r="B129" s="11"/>
       <c r="C129" s="8"/>
       <c r="D129" s="8"/>
@@ -7012,7 +7024,7 @@
       <c r="Q129" s="8"/>
       <c r="R129" s="8"/>
     </row>
-    <row r="130" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:18" ht="18.75" customHeight="1">
       <c r="B130" s="11"/>
       <c r="C130" s="8"/>
       <c r="D130" s="8"/>
@@ -7031,7 +7043,7 @@
       <c r="Q130" s="8"/>
       <c r="R130" s="8"/>
     </row>
-    <row r="131" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:18" ht="18.75" customHeight="1">
       <c r="B131" s="11"/>
       <c r="C131" s="8"/>
       <c r="D131" s="8"/>
@@ -7050,7 +7062,7 @@
       <c r="Q131" s="8"/>
       <c r="R131" s="8"/>
     </row>
-    <row r="132" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:18" ht="18.75" customHeight="1">
       <c r="B132" s="11"/>
       <c r="C132" s="8"/>
       <c r="D132" s="8"/>
@@ -7069,7 +7081,7 @@
       <c r="Q132" s="8"/>
       <c r="R132" s="8"/>
     </row>
-    <row r="133" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:18" ht="18.75" customHeight="1">
       <c r="B133" s="11"/>
       <c r="C133" s="8"/>
       <c r="D133" s="8"/>
@@ -7088,7 +7100,7 @@
       <c r="Q133" s="8"/>
       <c r="R133" s="8"/>
     </row>
-    <row r="134" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:18" ht="18.75" customHeight="1">
       <c r="B134" s="11"/>
       <c r="C134" s="8"/>
       <c r="D134" s="8"/>
@@ -7107,7 +7119,7 @@
       <c r="Q134" s="8"/>
       <c r="R134" s="8"/>
     </row>
-    <row r="135" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:18" ht="18.75" customHeight="1">
       <c r="B135" s="11"/>
       <c r="C135" s="8"/>
       <c r="D135" s="8"/>
@@ -7126,7 +7138,7 @@
       <c r="Q135" s="8"/>
       <c r="R135" s="8"/>
     </row>
-    <row r="136" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:18" ht="18.75" customHeight="1">
       <c r="B136" s="11"/>
       <c r="C136" s="8"/>
       <c r="D136" s="8"/>
@@ -7145,7 +7157,7 @@
       <c r="Q136" s="8"/>
       <c r="R136" s="8"/>
     </row>
-    <row r="137" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:18" ht="18.75" customHeight="1">
       <c r="B137" s="11"/>
       <c r="C137" s="8"/>
       <c r="D137" s="8"/>
@@ -7164,7 +7176,7 @@
       <c r="Q137" s="8"/>
       <c r="R137" s="8"/>
     </row>
-    <row r="138" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:18" ht="18.75" customHeight="1">
       <c r="B138" s="11"/>
       <c r="C138" s="8"/>
       <c r="D138" s="8"/>
@@ -7183,7 +7195,7 @@
       <c r="Q138" s="8"/>
       <c r="R138" s="8"/>
     </row>
-    <row r="139" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:18" ht="18.75" customHeight="1">
       <c r="B139" s="11"/>
       <c r="C139" s="8"/>
       <c r="D139" s="8"/>
@@ -7202,7 +7214,7 @@
       <c r="Q139" s="8"/>
       <c r="R139" s="8"/>
     </row>
-    <row r="140" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:18" ht="18.75" customHeight="1">
       <c r="B140" s="11"/>
       <c r="C140" s="8"/>
       <c r="D140" s="8"/>
@@ -7221,7 +7233,7 @@
       <c r="Q140" s="8"/>
       <c r="R140" s="8"/>
     </row>
-    <row r="141" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:18" ht="18.75" customHeight="1">
       <c r="B141" s="11"/>
       <c r="C141" s="8"/>
       <c r="D141" s="8"/>
@@ -7240,7 +7252,7 @@
       <c r="Q141" s="8"/>
       <c r="R141" s="8"/>
     </row>
-    <row r="142" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:18" ht="18.75" customHeight="1">
       <c r="B142" s="11"/>
       <c r="C142" s="8"/>
       <c r="D142" s="8"/>
@@ -7259,7 +7271,7 @@
       <c r="Q142" s="8"/>
       <c r="R142" s="8"/>
     </row>
-    <row r="143" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:18" ht="18.75" customHeight="1">
       <c r="B143" s="11"/>
       <c r="C143" s="8"/>
       <c r="D143" s="8"/>
@@ -7278,7 +7290,7 @@
       <c r="Q143" s="8"/>
       <c r="R143" s="8"/>
     </row>
-    <row r="144" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:18" ht="18.75" customHeight="1">
       <c r="B144" s="11"/>
       <c r="C144" s="8"/>
       <c r="D144" s="8"/>
@@ -7297,7 +7309,7 @@
       <c r="Q144" s="8"/>
       <c r="R144" s="8"/>
     </row>
-    <row r="145" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:18" ht="18.75" customHeight="1">
       <c r="B145" s="11"/>
       <c r="C145" s="8"/>
       <c r="D145" s="8"/>
@@ -7316,7 +7328,7 @@
       <c r="Q145" s="8"/>
       <c r="R145" s="8"/>
     </row>
-    <row r="146" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:18" ht="18.75" customHeight="1">
       <c r="B146" s="11"/>
       <c r="C146" s="8"/>
       <c r="D146" s="8"/>
@@ -7335,7 +7347,7 @@
       <c r="Q146" s="8"/>
       <c r="R146" s="8"/>
     </row>
-    <row r="147" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:18" ht="18.75" customHeight="1">
       <c r="B147" s="11"/>
       <c r="C147" s="8"/>
       <c r="D147" s="8"/>
@@ -7354,7 +7366,7 @@
       <c r="Q147" s="8"/>
       <c r="R147" s="8"/>
     </row>
-    <row r="148" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:18" ht="18.75" customHeight="1">
       <c r="B148" s="11"/>
       <c r="C148" s="8"/>
       <c r="D148" s="8"/>
@@ -7373,7 +7385,7 @@
       <c r="Q148" s="8"/>
       <c r="R148" s="8"/>
     </row>
-    <row r="149" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:18" ht="18.75" customHeight="1">
       <c r="B149" s="11"/>
       <c r="C149" s="8"/>
       <c r="D149" s="8"/>
@@ -7392,7 +7404,7 @@
       <c r="Q149" s="8"/>
       <c r="R149" s="8"/>
     </row>
-    <row r="150" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:18" ht="18.75" customHeight="1">
       <c r="B150" s="11"/>
       <c r="C150" s="8"/>
       <c r="D150" s="8"/>
@@ -7411,7 +7423,7 @@
       <c r="Q150" s="8"/>
       <c r="R150" s="8"/>
     </row>
-    <row r="151" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:18" ht="18.75" customHeight="1">
       <c r="B151" s="11"/>
       <c r="C151" s="8"/>
       <c r="D151" s="8"/>
